--- a/resultData/Полотенца бумажные.xlsx
+++ b/resultData/Полотенца бумажные.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C59AC7-40B6-4E39-8015-8D55CB284093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Полотенца бумажные" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Полотенца бумажные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Полотенца бумажные'!$A$3:$Y$3</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="584">
   <si>
     <t>Встречаемость</t>
   </si>
@@ -1772,20 +1780,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1801,15 +1808,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2097,158 +2113,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" t="s"/>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="n">
-        <v>20.49911543564794</v>
-      </c>
-      <c r="G1" t="n">
-        <v>22.67261831967714</v>
-      </c>
-      <c r="H1" t="n">
-        <v>1353.240875912409</v>
-      </c>
-      <c r="I1" t="n">
+      <c r="F1">
+        <v>20.499115435647941</v>
+      </c>
+      <c r="G1">
+        <v>22.672618319677142</v>
+      </c>
+      <c r="H1">
+        <v>1353.2408759124089</v>
+      </c>
+      <c r="I1">
         <v>10905.52941176471</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1">
         <v>26.67155804920155</v>
       </c>
-      <c r="K1" t="n">
-        <v>72.10968494749125</v>
-      </c>
-      <c r="L1" t="n">
+      <c r="K1">
+        <v>72.109684947491246</v>
+      </c>
+      <c r="L1">
         <v>15449.5</v>
       </c>
-      <c r="M1" t="n">
-        <v>75.39406262708418</v>
-      </c>
-      <c r="N1" t="n">
-        <v>42.28877737226277</v>
-      </c>
-      <c r="O1" t="n">
-        <v>20599.33333333333</v>
-      </c>
-      <c r="P1" t="n">
-        <v>19.66627771295216</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>1029.966666666667</v>
-      </c>
-      <c r="R1" t="n">
-        <v>274.2514792899408</v>
-      </c>
-      <c r="S1" t="n">
+      <c r="M1">
+        <v>75.394062627084182</v>
+      </c>
+      <c r="N1">
+        <v>42.288777372262771</v>
+      </c>
+      <c r="O1">
+        <v>20599.333333333328</v>
+      </c>
+      <c r="P1">
+        <v>19.666277712952159</v>
+      </c>
+      <c r="Q1">
+        <v>1029.9666666666669</v>
+      </c>
+      <c r="R1">
+        <v>274.25147928994079</v>
+      </c>
+      <c r="S1">
         <v>7415.76</v>
       </c>
-      <c r="T1" t="n">
-        <v>82.91323792486583</v>
-      </c>
-      <c r="U1" t="n">
-        <v>31.34302620456467</v>
-      </c>
-      <c r="V1" t="n">
+      <c r="T1">
+        <v>82.913237924865825</v>
+      </c>
+      <c r="U1">
+        <v>31.343026204564669</v>
+      </c>
+      <c r="V1">
         <v>168.6933575978162</v>
       </c>
-      <c r="W1" t="n">
-        <v>30.18463041354608</v>
-      </c>
-      <c r="X1" t="n">
+      <c r="W1">
+        <v>30.184630413546081</v>
+      </c>
+      <c r="X1">
         <v>19.31992496873697</v>
       </c>
-      <c r="Y1" t="n">
-        <v>54.96412689000889</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+      <c r="Y1">
+        <v>54.964126890008892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>20599.33333333333</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20599.33333333333</v>
-      </c>
-      <c r="H2" t="n">
-        <v>307.452736318408</v>
-      </c>
-      <c r="I2" t="n">
-        <v>307.452736318408</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20599.33333333333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>316.9128205128205</v>
-      </c>
-      <c r="L2" t="n">
-        <v>490.4603174603175</v>
-      </c>
-      <c r="M2" t="n">
-        <v>153.726368159204</v>
-      </c>
-      <c r="N2" t="n">
-        <v>242.3450980392157</v>
-      </c>
-      <c r="O2" t="n">
-        <v>411.9866666666667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20599.33333333333</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>20599.33333333333</v>
-      </c>
-      <c r="R2" t="n">
-        <v>735.6904761904761</v>
-      </c>
-      <c r="S2" t="n">
-        <v>163.4867724867725</v>
-      </c>
-      <c r="T2" t="n">
-        <v>588.552380952381</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1029.966666666667</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="F2">
+        <v>20599.333333333328</v>
+      </c>
+      <c r="G2">
+        <v>20599.333333333328</v>
+      </c>
+      <c r="H2">
+        <v>307.45273631840797</v>
+      </c>
+      <c r="I2">
+        <v>307.45273631840797</v>
+      </c>
+      <c r="J2">
+        <v>20599.333333333328</v>
+      </c>
+      <c r="K2">
+        <v>316.91282051282047</v>
+      </c>
+      <c r="L2">
+        <v>490.46031746031753</v>
+      </c>
+      <c r="M2">
+        <v>153.72636815920399</v>
+      </c>
+      <c r="N2">
+        <v>242.34509803921571</v>
+      </c>
+      <c r="O2">
+        <v>411.98666666666668</v>
+      </c>
+      <c r="P2">
+        <v>20599.333333333328</v>
+      </c>
+      <c r="Q2">
+        <v>20599.333333333328</v>
+      </c>
+      <c r="R2">
+        <v>735.69047619047615</v>
+      </c>
+      <c r="S2">
+        <v>163.48677248677251</v>
+      </c>
+      <c r="T2">
+        <v>588.55238095238099</v>
+      </c>
+      <c r="U2">
+        <v>1029.9666666666669</v>
+      </c>
+      <c r="V2">
         <v>201.9542483660131</v>
       </c>
-      <c r="W2" t="n">
-        <v>355.1609195402299</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="W2">
+        <v>355.16091954022988</v>
+      </c>
+      <c r="X2">
         <v>2942.761904761905</v>
       </c>
-      <c r="Y2" t="n">
-        <v>223.9057971014493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Y2">
+        <v>223.90579710144931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2325,8 +2329,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="n">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1017723.232241226</v>
       </c>
       <c r="B4" t="s">
@@ -2341,36 +2345,19 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
       <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
       <c r="S4" t="s">
         <v>32</v>
       </c>
-      <c r="T4" t="s"/>
       <c r="U4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" t="n">
-        <v>950899.0422370824</v>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>950899.04223708238</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -2384,19 +2371,15 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
       <c r="H5" t="s">
         <v>37</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s"/>
       <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s"/>
       <c r="M5" t="s">
         <v>40</v>
       </c>
@@ -2406,13 +2389,9 @@
       <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
       <c r="S5" t="s">
         <v>43</v>
       </c>
-      <c r="T5" t="s"/>
       <c r="U5" t="s">
         <v>33</v>
       </c>
@@ -2422,13 +2401,12 @@
       <c r="W5" t="s">
         <v>45</v>
       </c>
-      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" t="n">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>887275.2855059274</v>
       </c>
       <c r="B6" t="s">
@@ -2443,13 +2421,9 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
       <c r="K6" t="s">
         <v>50</v>
       </c>
@@ -2465,26 +2439,19 @@
       <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
       <c r="S6" t="s">
         <v>53</v>
       </c>
       <c r="T6" t="s">
         <v>54</v>
       </c>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
       <c r="Y6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" t="n">
-        <v>787810.9424070644</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>787810.94240706437</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -2498,11 +2465,6 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
       <c r="K7" t="s">
         <v>59</v>
       </c>
@@ -2515,9 +2477,6 @@
       <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
       <c r="R7" t="s">
         <v>62</v>
       </c>
@@ -2527,21 +2486,19 @@
       <c r="T7" t="s">
         <v>63</v>
       </c>
-      <c r="U7" t="s"/>
       <c r="V7" t="s">
         <v>64</v>
       </c>
       <c r="W7" t="s">
         <v>65</v>
       </c>
-      <c r="X7" t="s"/>
       <c r="Y7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" t="n">
-        <v>784739.7853259015</v>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>784739.78532590147</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -2555,42 +2512,28 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
       <c r="H8" t="s">
         <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
       <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
       <c r="S8" t="s">
         <v>43</v>
       </c>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
       <c r="W8" t="s">
         <v>71</v>
       </c>
-      <c r="X8" t="s"/>
       <c r="Y8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" t="n">
-        <v>784159.5015287044</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>784159.50152870442</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -2604,11 +2547,6 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
       <c r="K9" t="s">
         <v>74</v>
       </c>
@@ -2621,9 +2559,6 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
       <c r="R9" t="s">
         <v>76</v>
       </c>
@@ -2633,21 +2568,19 @@
       <c r="T9" t="s">
         <v>77</v>
       </c>
-      <c r="U9" t="s"/>
       <c r="V9" t="s">
         <v>78</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
       </c>
-      <c r="X9" t="s"/>
       <c r="Y9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="n">
-        <v>764734.8705309154</v>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>764734.87053091545</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -2661,43 +2594,30 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
       <c r="L10" t="s">
         <v>82</v>
       </c>
       <c r="M10" t="s">
         <v>61</v>
       </c>
-      <c r="N10" t="s"/>
       <c r="O10" t="s">
         <v>31</v>
       </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
       <c r="S10" t="s">
         <v>53</v>
       </c>
       <c r="T10" t="s">
         <v>83</v>
       </c>
-      <c r="U10" t="s"/>
       <c r="V10" t="s">
         <v>64</v>
       </c>
       <c r="W10" t="s">
         <v>84</v>
       </c>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="n">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>613574.2285556501</v>
       </c>
       <c r="B11" t="s">
@@ -2712,48 +2632,37 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
       <c r="H11" t="s">
         <v>87</v>
       </c>
       <c r="I11" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
       <c r="L11" t="s">
         <v>89</v>
       </c>
       <c r="M11" t="s">
         <v>61</v>
       </c>
-      <c r="N11" t="s"/>
       <c r="O11" t="s">
         <v>42</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
       <c r="S11" t="s">
         <v>53</v>
       </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
       <c r="V11" t="s">
         <v>90</v>
       </c>
       <c r="W11" t="s">
         <v>91</v>
       </c>
-      <c r="X11" t="s"/>
       <c r="Y11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" t="n">
-        <v>529558.2095361828</v>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>529558.20953618281</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -2767,14 +2676,9 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
       <c r="L12" t="s">
         <v>96</v>
       </c>
@@ -2784,9 +2688,6 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
       <c r="R12" t="s">
         <v>76</v>
       </c>
@@ -2796,19 +2697,16 @@
       <c r="T12" t="s">
         <v>97</v>
       </c>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
       <c r="W12" t="s">
         <v>98</v>
       </c>
-      <c r="X12" t="s"/>
       <c r="Y12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" t="n">
-        <v>497755.6786796375</v>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>497755.67867963749</v>
       </c>
       <c r="B13" t="s">
         <v>100</v>
@@ -2822,19 +2720,15 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
         <v>103</v>
       </c>
       <c r="I13" t="s">
         <v>104</v>
       </c>
-      <c r="J13" t="s"/>
       <c r="K13" t="s">
         <v>105</v>
       </c>
-      <c r="L13" t="s"/>
       <c r="M13" t="s">
         <v>52</v>
       </c>
@@ -2844,13 +2738,9 @@
       <c r="O13" t="s">
         <v>42</v>
       </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
       <c r="S13" t="s">
         <v>53</v>
       </c>
-      <c r="T13" t="s"/>
       <c r="U13" t="s">
         <v>106</v>
       </c>
@@ -2860,14 +2750,13 @@
       <c r="W13" t="s">
         <v>107</v>
       </c>
-      <c r="X13" t="s"/>
       <c r="Y13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="n">
-        <v>497517.8724507082</v>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>497517.87245070818</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -2881,19 +2770,15 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>103</v>
       </c>
       <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" t="s"/>
       <c r="K14" t="s">
         <v>105</v>
       </c>
-      <c r="L14" t="s"/>
       <c r="M14" t="s">
         <v>52</v>
       </c>
@@ -2903,13 +2788,9 @@
       <c r="O14" t="s">
         <v>42</v>
       </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
       <c r="S14" t="s">
         <v>53</v>
       </c>
-      <c r="T14" t="s"/>
       <c r="U14" t="s">
         <v>33</v>
       </c>
@@ -2919,14 +2800,13 @@
       <c r="W14" t="s">
         <v>112</v>
       </c>
-      <c r="X14" t="s"/>
       <c r="Y14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="n">
-        <v>463487.4977699316</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>463487.49776993162</v>
       </c>
       <c r="B15" t="s">
         <v>114</v>
@@ -2940,14 +2820,9 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
       <c r="I15" t="s">
         <v>88</v>
       </c>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
       <c r="L15" t="s">
         <v>89</v>
       </c>
@@ -2957,29 +2832,22 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
       <c r="R15" t="s">
         <v>116</v>
       </c>
       <c r="S15" t="s">
         <v>53</v>
       </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
       <c r="V15" t="s">
         <v>90</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
       <c r="Y15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="n">
-        <v>426876.5915749903</v>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>426876.59157499031</v>
       </c>
       <c r="B16" t="s">
         <v>118</v>
@@ -2993,44 +2861,31 @@
       <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
       <c r="H16" t="s">
         <v>120</v>
       </c>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
       <c r="L16" t="s">
         <v>121</v>
       </c>
       <c r="M16" t="s">
         <v>61</v>
       </c>
-      <c r="N16" t="s"/>
       <c r="O16" t="s">
         <v>31</v>
       </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
       <c r="S16" t="s">
         <v>53</v>
       </c>
       <c r="T16" t="s">
         <v>103</v>
       </c>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
       <c r="Y16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="n">
-        <v>408518.7327393226</v>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>408518.73273932259</v>
       </c>
       <c r="B17" t="s">
         <v>123</v>
@@ -3044,44 +2899,31 @@
       <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
       <c r="L17" t="s">
         <v>96</v>
       </c>
       <c r="M17" t="s">
         <v>61</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
       <c r="S17" t="s">
         <v>43</v>
       </c>
       <c r="T17" t="s">
         <v>97</v>
       </c>
-      <c r="U17" t="s"/>
       <c r="V17" t="s">
         <v>64</v>
       </c>
       <c r="W17" t="s">
         <v>125</v>
       </c>
-      <c r="X17" t="s"/>
       <c r="Y17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="n">
-        <v>399378.7366143822</v>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>399378.73661438219</v>
       </c>
       <c r="B18" t="s">
         <v>126</v>
@@ -3095,43 +2937,30 @@
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
         <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>129</v>
       </c>
-      <c r="J18" t="s"/>
       <c r="K18" t="s">
         <v>130</v>
       </c>
-      <c r="L18" t="s"/>
       <c r="M18" t="s">
         <v>61</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
       <c r="S18" t="s">
         <v>53</v>
       </c>
-      <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
       <c r="V18" t="s">
         <v>131</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
       <c r="Y18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="n">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>390608.8049232288</v>
       </c>
       <c r="B19" t="s">
@@ -3146,42 +2975,28 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
       <c r="I19" t="s">
         <v>129</v>
       </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
       <c r="M19" t="s">
         <v>61</v>
       </c>
       <c r="N19" t="s">
         <v>41</v>
       </c>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
       <c r="S19" t="s">
         <v>53</v>
       </c>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
       <c r="V19" t="s">
         <v>131</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
       <c r="Y19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" t="n">
-        <v>382411.7770623404</v>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>382411.77706234041</v>
       </c>
       <c r="B20" t="s">
         <v>136</v>
@@ -3195,12 +3010,6 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" t="s"/>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
       <c r="L20" t="s">
         <v>138</v>
       </c>
@@ -3210,9 +3019,6 @@
       <c r="N20" t="s">
         <v>139</v>
       </c>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
       <c r="R20" t="s">
         <v>140</v>
       </c>
@@ -3222,14 +3028,9 @@
       <c r="T20" t="s">
         <v>83</v>
       </c>
-      <c r="U20" t="s"/>
-      <c r="V20" t="s"/>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" t="n">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>372741.1720921697</v>
       </c>
       <c r="B21" t="s">
@@ -3244,42 +3045,28 @@
       <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
       <c r="L21" t="s">
         <v>138</v>
       </c>
       <c r="M21" t="s">
         <v>61</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
       <c r="S21" t="s">
         <v>53</v>
       </c>
       <c r="T21" t="s">
         <v>83</v>
       </c>
-      <c r="U21" t="s"/>
       <c r="V21" t="s">
         <v>64</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
       <c r="Y21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" t="n">
-        <v>325555.2737468397</v>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>325555.27374683972</v>
       </c>
       <c r="B22" t="s">
         <v>144</v>
@@ -3293,11 +3080,6 @@
       <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s"/>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
       <c r="K22" t="s">
         <v>146</v>
       </c>
@@ -3310,9 +3092,6 @@
       <c r="N22" t="s">
         <v>41</v>
       </c>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
       <c r="R22" t="s">
         <v>147</v>
       </c>
@@ -3322,21 +3101,19 @@
       <c r="T22" t="s">
         <v>103</v>
       </c>
-      <c r="U22" t="s"/>
       <c r="V22" t="s">
         <v>64</v>
       </c>
       <c r="W22" t="s">
         <v>148</v>
       </c>
-      <c r="X22" t="s"/>
       <c r="Y22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" t="n">
-        <v>318159.1969985577</v>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>318159.19699855772</v>
       </c>
       <c r="B23" t="s">
         <v>149</v>
@@ -3350,12 +3127,6 @@
       <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" t="s"/>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
       <c r="L23" t="s">
         <v>121</v>
       </c>
@@ -3368,28 +3139,22 @@
       <c r="O23" t="s">
         <v>31</v>
       </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
       <c r="S23" t="s">
         <v>53</v>
       </c>
       <c r="T23" t="s">
         <v>54</v>
       </c>
-      <c r="U23" t="s"/>
       <c r="V23" t="s">
         <v>64</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
       <c r="Y23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" t="n">
-        <v>304334.1678062342</v>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>304334.16780623421</v>
       </c>
       <c r="B24" t="s">
         <v>152</v>
@@ -3403,16 +3168,12 @@
       <c r="E24" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s"/>
-      <c r="G24" t="s"/>
       <c r="H24" t="s">
         <v>77</v>
       </c>
       <c r="I24" t="s">
         <v>154</v>
       </c>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s"/>
       <c r="L24" t="s">
         <v>155</v>
       </c>
@@ -3425,26 +3186,19 @@
       <c r="O24" t="s">
         <v>42</v>
       </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
       <c r="S24" t="s">
         <v>53</v>
       </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="s"/>
       <c r="W24" t="s">
         <v>156</v>
       </c>
-      <c r="X24" t="s"/>
       <c r="Y24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" t="n">
-        <v>286501.8679809642</v>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>286501.86798096419</v>
       </c>
       <c r="B25" t="s">
         <v>157</v>
@@ -3458,15 +3212,12 @@
       <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s"/>
-      <c r="G25" t="s"/>
       <c r="H25" t="s">
         <v>77</v>
       </c>
       <c r="I25" t="s">
         <v>154</v>
       </c>
-      <c r="J25" t="s"/>
       <c r="K25" t="s">
         <v>159</v>
       </c>
@@ -3479,27 +3230,19 @@
       <c r="N25" t="s">
         <v>41</v>
       </c>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
       <c r="S25" t="s">
         <v>53</v>
       </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="s"/>
       <c r="W25" t="s">
         <v>160</v>
       </c>
-      <c r="X25" t="s"/>
       <c r="Y25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" t="n">
-        <v>278136.2894557177</v>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>278136.28945571772</v>
       </c>
       <c r="B26" t="s">
         <v>161</v>
@@ -3513,15 +3256,12 @@
       <c r="E26" t="s">
         <v>30</v>
       </c>
-      <c r="F26" t="s"/>
-      <c r="G26" t="s"/>
       <c r="H26" t="s">
         <v>163</v>
       </c>
       <c r="I26" t="s">
         <v>164</v>
       </c>
-      <c r="J26" t="s"/>
       <c r="K26" t="s">
         <v>165</v>
       </c>
@@ -3537,28 +3277,22 @@
       <c r="O26" t="s">
         <v>42</v>
       </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
       <c r="S26" t="s">
         <v>43</v>
       </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
       <c r="V26" t="s">
         <v>64</v>
       </c>
       <c r="W26" t="s">
         <v>166</v>
       </c>
-      <c r="X26" t="s"/>
       <c r="Y26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" t="n">
-        <v>263885.8250528619</v>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>263885.82505286188</v>
       </c>
       <c r="B27" t="s">
         <v>168</v>
@@ -3572,15 +3306,12 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s"/>
-      <c r="G27" t="s"/>
       <c r="H27" t="s">
         <v>77</v>
       </c>
       <c r="I27" t="s">
         <v>154</v>
       </c>
-      <c r="J27" t="s"/>
       <c r="K27" t="s">
         <v>171</v>
       </c>
@@ -3590,25 +3321,15 @@
       <c r="M27" t="s">
         <v>61</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
       <c r="S27" t="s">
         <v>53</v>
       </c>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
       <c r="Y27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
-      <c r="A28" t="n">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>206721.4473816668</v>
       </c>
       <c r="B28" t="s">
@@ -3623,19 +3344,15 @@
       <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" t="s"/>
-      <c r="G28" t="s"/>
       <c r="H28" t="s">
         <v>37</v>
       </c>
       <c r="I28" t="s">
         <v>175</v>
       </c>
-      <c r="J28" t="s"/>
       <c r="K28" t="s">
         <v>176</v>
       </c>
-      <c r="L28" t="s"/>
       <c r="M28" t="s">
         <v>52</v>
       </c>
@@ -3645,13 +3362,9 @@
       <c r="O28" t="s">
         <v>42</v>
       </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
       <c r="S28" t="s">
         <v>43</v>
       </c>
-      <c r="T28" t="s"/>
       <c r="U28" t="s">
         <v>106</v>
       </c>
@@ -3661,14 +3374,13 @@
       <c r="W28" t="s">
         <v>179</v>
       </c>
-      <c r="X28" t="s"/>
       <c r="Y28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="n">
-        <v>206422.1303211114</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>206422.13032111141</v>
       </c>
       <c r="B29" t="s">
         <v>181</v>
@@ -3682,13 +3394,6 @@
       <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" t="s"/>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s"/>
-      <c r="J29" t="s"/>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
       <c r="M29" t="s">
         <v>183</v>
       </c>
@@ -3698,9 +3403,6 @@
       <c r="O29" t="s">
         <v>31</v>
       </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
       <c r="S29" t="s">
         <v>43</v>
       </c>
@@ -3716,13 +3418,12 @@
       <c r="W29" t="s">
         <v>185</v>
       </c>
-      <c r="X29" t="s"/>
       <c r="Y29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="n">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>205668.4500329062</v>
       </c>
       <c r="B30" t="s">
@@ -3737,39 +3438,24 @@
       <c r="E30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" t="s"/>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s"/>
       <c r="I30" t="s">
         <v>154</v>
       </c>
-      <c r="J30" t="s"/>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
       <c r="M30" t="s">
         <v>189</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
       <c r="R30" t="s">
         <v>190</v>
       </c>
       <c r="S30" t="s">
         <v>53</v>
       </c>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
       <c r="V30" t="s">
         <v>191</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" t="n">
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>204012.5771216818</v>
       </c>
       <c r="B31" t="s">
@@ -3784,16 +3470,12 @@
       <c r="E31" t="s">
         <v>30</v>
       </c>
-      <c r="F31" t="s"/>
-      <c r="G31" t="s"/>
       <c r="H31" t="s">
         <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>194</v>
       </c>
-      <c r="J31" t="s"/>
-      <c r="K31" t="s"/>
       <c r="L31" t="s">
         <v>89</v>
       </c>
@@ -3806,27 +3488,21 @@
       <c r="O31" t="s">
         <v>42</v>
       </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
       <c r="S31" t="s">
         <v>53</v>
       </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
       <c r="V31" t="s">
         <v>131</v>
       </c>
       <c r="W31" t="s">
         <v>195</v>
       </c>
-      <c r="X31" t="s"/>
       <c r="Y31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
-      <c r="A32" t="n">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>204012.5771216818</v>
       </c>
       <c r="B32" t="s">
@@ -3841,16 +3517,12 @@
       <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="F32" t="s"/>
-      <c r="G32" t="s"/>
       <c r="H32" t="s">
         <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>194</v>
       </c>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
       <c r="L32" t="s">
         <v>89</v>
       </c>
@@ -3863,27 +3535,21 @@
       <c r="O32" t="s">
         <v>42</v>
       </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
       <c r="S32" t="s">
         <v>53</v>
       </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
       <c r="V32" t="s">
         <v>131</v>
       </c>
       <c r="W32" t="s">
         <v>199</v>
       </c>
-      <c r="X32" t="s"/>
       <c r="Y32" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
-      <c r="A33" t="n">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>193361.3805134006</v>
       </c>
       <c r="B33" t="s">
@@ -3898,19 +3564,15 @@
       <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F33" t="s"/>
-      <c r="G33" t="s"/>
       <c r="H33" t="s">
         <v>37</v>
       </c>
       <c r="I33" t="s">
         <v>175</v>
       </c>
-      <c r="J33" t="s"/>
       <c r="K33" t="s">
         <v>204</v>
       </c>
-      <c r="L33" t="s"/>
       <c r="M33" t="s">
         <v>52</v>
       </c>
@@ -3920,13 +3582,9 @@
       <c r="O33" t="s">
         <v>42</v>
       </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
       <c r="S33" t="s">
         <v>43</v>
       </c>
-      <c r="T33" t="s"/>
       <c r="U33" t="s">
         <v>106</v>
       </c>
@@ -3936,14 +3594,13 @@
       <c r="W33" t="s">
         <v>205</v>
       </c>
-      <c r="X33" t="s"/>
       <c r="Y33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
-      <c r="A34" t="n">
-        <v>193057.8594637841</v>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>193057.85946378409</v>
       </c>
       <c r="B34" t="s">
         <v>206</v>
@@ -3957,24 +3614,15 @@
       <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="F34" t="s"/>
-      <c r="G34" t="s"/>
       <c r="H34" t="s">
         <v>209</v>
       </c>
-      <c r="I34" t="s"/>
-      <c r="J34" t="s"/>
       <c r="K34" t="s">
         <v>210</v>
       </c>
-      <c r="L34" t="s"/>
       <c r="M34" t="s">
         <v>211</v>
       </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
       <c r="R34" t="s">
         <v>212</v>
       </c>
@@ -3984,19 +3632,16 @@
       <c r="T34" t="s">
         <v>213</v>
       </c>
-      <c r="U34" t="s"/>
       <c r="V34" t="s">
         <v>214</v>
       </c>
       <c r="W34" t="s">
         <v>215</v>
       </c>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
-    </row>
-    <row r="35" spans="1:25">
-      <c r="A35" t="n">
-        <v>180068.1336009405</v>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>180068.13360094049</v>
       </c>
       <c r="B35" t="s">
         <v>216</v>
@@ -4010,44 +3655,31 @@
       <c r="E35" t="s">
         <v>30</v>
       </c>
-      <c r="F35" t="s"/>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s"/>
-      <c r="J35" t="s"/>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
       <c r="M35" t="s">
         <v>219</v>
       </c>
-      <c r="N35" t="s"/>
       <c r="O35" t="s">
         <v>31</v>
       </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
       <c r="S35" t="s">
         <v>43</v>
       </c>
       <c r="T35" t="s">
         <v>220</v>
       </c>
-      <c r="U35" t="s"/>
       <c r="V35" t="s">
         <v>64</v>
       </c>
       <c r="W35" t="s">
         <v>221</v>
       </c>
-      <c r="X35" t="s"/>
       <c r="Y35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
-      <c r="A36" t="n">
-        <v>176086.4201351203</v>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>176086.42013512031</v>
       </c>
       <c r="B36" t="s">
         <v>223</v>
@@ -4061,19 +3693,15 @@
       <c r="E36" t="s">
         <v>30</v>
       </c>
-      <c r="F36" t="s"/>
-      <c r="G36" t="s"/>
       <c r="H36" t="s">
         <v>37</v>
       </c>
       <c r="I36" t="s">
         <v>175</v>
       </c>
-      <c r="J36" t="s"/>
       <c r="K36" t="s">
         <v>225</v>
       </c>
-      <c r="L36" t="s"/>
       <c r="M36" t="s">
         <v>189</v>
       </c>
@@ -4083,13 +3711,9 @@
       <c r="O36" t="s">
         <v>42</v>
       </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
       <c r="S36" t="s">
         <v>43</v>
       </c>
-      <c r="T36" t="s"/>
       <c r="U36" t="s">
         <v>226</v>
       </c>
@@ -4099,11 +3723,9 @@
       <c r="W36" t="s">
         <v>227</v>
       </c>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" t="n">
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>170147.5282590446</v>
       </c>
       <c r="B37" t="s">
@@ -4118,44 +3740,31 @@
       <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" t="s"/>
-      <c r="G37" t="s"/>
       <c r="H37" t="s">
         <v>231</v>
       </c>
-      <c r="I37" t="s"/>
-      <c r="J37" t="s"/>
       <c r="K37" t="s">
         <v>232</v>
       </c>
-      <c r="L37" t="s"/>
       <c r="M37" t="s">
         <v>211</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
       <c r="S37" t="s">
         <v>53</v>
       </c>
       <c r="T37" t="s">
         <v>213</v>
       </c>
-      <c r="U37" t="s"/>
       <c r="V37" t="s">
         <v>214</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
       <c r="Y37" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
-      <c r="A38" t="n">
-        <v>169514.0241377919</v>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>169514.02413779189</v>
       </c>
       <c r="B38" t="s">
         <v>234</v>
@@ -4169,44 +3778,31 @@
       <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="F38" t="s"/>
-      <c r="G38" t="s"/>
       <c r="H38" t="s">
         <v>103</v>
       </c>
       <c r="I38" t="s">
         <v>194</v>
       </c>
-      <c r="J38" t="s"/>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
       <c r="M38" t="s">
         <v>237</v>
       </c>
-      <c r="N38" t="s"/>
       <c r="O38" t="s">
         <v>42</v>
       </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
       <c r="S38" t="s">
         <v>53</v>
       </c>
-      <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
       <c r="V38" t="s">
         <v>131</v>
       </c>
       <c r="W38" t="s">
         <v>238</v>
       </c>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="A39" t="n">
-        <v>168693.5301562542</v>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>168693.53015625419</v>
       </c>
       <c r="B39" t="s">
         <v>239</v>
@@ -4220,47 +3816,36 @@
       <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="F39" t="s"/>
-      <c r="G39" t="s"/>
       <c r="H39" t="s">
         <v>128</v>
       </c>
       <c r="I39" t="s">
         <v>194</v>
       </c>
-      <c r="J39" t="s"/>
-      <c r="K39" t="s"/>
       <c r="L39" t="s">
         <v>89</v>
       </c>
       <c r="M39" t="s">
         <v>61</v>
       </c>
-      <c r="N39" t="s"/>
       <c r="O39" t="s">
         <v>42</v>
       </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
       <c r="S39" t="s">
         <v>53</v>
       </c>
-      <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
       <c r="V39" t="s">
         <v>131</v>
       </c>
       <c r="W39" t="s">
         <v>241</v>
       </c>
-      <c r="X39" t="s"/>
       <c r="Y39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
-      <c r="A40" t="n">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>164468.512960711</v>
       </c>
       <c r="B40" t="s">
@@ -4275,44 +3860,31 @@
       <c r="E40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" t="s"/>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s"/>
       <c r="I40" t="s">
         <v>194</v>
       </c>
-      <c r="J40" t="s"/>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
       <c r="M40" t="s">
         <v>245</v>
       </c>
       <c r="N40" t="s">
         <v>41</v>
       </c>
-      <c r="O40" t="s"/>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
       <c r="S40" t="s">
         <v>53</v>
       </c>
-      <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
       <c r="V40" t="s">
         <v>246</v>
       </c>
       <c r="W40" t="s">
         <v>247</v>
       </c>
-      <c r="X40" t="s"/>
       <c r="Y40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
-      <c r="A41" t="n">
-        <v>161203.9634252847</v>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>161203.96342528469</v>
       </c>
       <c r="B41" t="s">
         <v>249</v>
@@ -4326,43 +3898,30 @@
       <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="F41" t="s"/>
-      <c r="G41" t="s"/>
       <c r="H41" t="s">
         <v>37</v>
       </c>
       <c r="I41" t="s">
         <v>175</v>
       </c>
-      <c r="J41" t="s"/>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
       <c r="M41" t="s">
         <v>52</v>
       </c>
-      <c r="N41" t="s"/>
       <c r="O41" t="s">
         <v>42</v>
       </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
       <c r="S41" t="s">
         <v>43</v>
       </c>
-      <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
       <c r="V41" t="s">
         <v>178</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
       <c r="Y41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
-      <c r="A42" t="n">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>160180.9677148526</v>
       </c>
       <c r="B42" t="s">
@@ -4377,19 +3936,15 @@
       <c r="E42" t="s">
         <v>30</v>
       </c>
-      <c r="F42" t="s"/>
-      <c r="G42" t="s"/>
       <c r="H42" t="s">
         <v>59</v>
       </c>
       <c r="I42" t="s">
         <v>175</v>
       </c>
-      <c r="J42" t="s"/>
       <c r="K42" t="s">
         <v>225</v>
       </c>
-      <c r="L42" t="s"/>
       <c r="M42" t="s">
         <v>254</v>
       </c>
@@ -4399,13 +3954,9 @@
       <c r="O42" t="s">
         <v>42</v>
       </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
       <c r="S42" t="s">
         <v>53</v>
       </c>
-      <c r="T42" t="s"/>
       <c r="U42" t="s">
         <v>33</v>
       </c>
@@ -4415,14 +3966,13 @@
       <c r="W42" t="s">
         <v>255</v>
       </c>
-      <c r="X42" t="s"/>
       <c r="Y42" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
-      <c r="A43" t="n">
-        <v>157711.1819825716</v>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>157711.18198257161</v>
       </c>
       <c r="B43" t="s">
         <v>257</v>
@@ -4436,45 +3986,33 @@
       <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" t="s"/>
-      <c r="G43" t="s"/>
       <c r="H43" t="s">
         <v>128</v>
       </c>
       <c r="I43" t="s">
         <v>194</v>
       </c>
-      <c r="J43" t="s"/>
-      <c r="K43" t="s"/>
       <c r="L43" t="s">
         <v>89</v>
       </c>
       <c r="M43" t="s">
         <v>61</v>
       </c>
-      <c r="N43" t="s"/>
       <c r="O43" t="s">
         <v>42</v>
       </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
       <c r="S43" t="s">
         <v>53</v>
       </c>
-      <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
       <c r="V43" t="s">
         <v>131</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
       <c r="Y43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
-      <c r="A44" t="n">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>156270.5649980389</v>
       </c>
       <c r="B44" t="s">
@@ -4489,15 +4027,12 @@
       <c r="E44" t="s">
         <v>30</v>
       </c>
-      <c r="F44" t="s"/>
-      <c r="G44" t="s"/>
       <c r="H44" t="s">
         <v>128</v>
       </c>
       <c r="I44" t="s">
         <v>194</v>
       </c>
-      <c r="J44" t="s"/>
       <c r="K44" t="s">
         <v>130</v>
       </c>
@@ -4510,28 +4045,21 @@
       <c r="N44" t="s">
         <v>41</v>
       </c>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
       <c r="S44" t="s">
         <v>53</v>
       </c>
-      <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
       <c r="V44" t="s">
         <v>131</v>
       </c>
       <c r="W44" t="s">
         <v>261</v>
       </c>
-      <c r="X44" t="s"/>
       <c r="Y44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
-      <c r="A45" t="n">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>154745.2864965084</v>
       </c>
       <c r="B45" t="s">
@@ -4546,19 +4074,15 @@
       <c r="E45" t="s">
         <v>30</v>
       </c>
-      <c r="F45" t="s"/>
-      <c r="G45" t="s"/>
       <c r="H45" t="s">
         <v>59</v>
       </c>
       <c r="I45" t="s">
         <v>175</v>
       </c>
-      <c r="J45" t="s"/>
       <c r="K45" t="s">
         <v>176</v>
       </c>
-      <c r="L45" t="s"/>
       <c r="M45" t="s">
         <v>52</v>
       </c>
@@ -4568,13 +4092,9 @@
       <c r="O45" t="s">
         <v>42</v>
       </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
       <c r="S45" t="s">
         <v>53</v>
       </c>
-      <c r="T45" t="s"/>
       <c r="U45" t="s">
         <v>106</v>
       </c>
@@ -4584,14 +4104,13 @@
       <c r="W45" t="s">
         <v>265</v>
       </c>
-      <c r="X45" t="s"/>
       <c r="Y45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
-      <c r="A46" t="n">
-        <v>153893.588062043</v>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>153893.58806204301</v>
       </c>
       <c r="B46" t="s">
         <v>266</v>
@@ -4605,13 +4124,9 @@
       <c r="E46" t="s">
         <v>30</v>
       </c>
-      <c r="F46" t="s"/>
-      <c r="G46" t="s"/>
       <c r="H46" t="s">
         <v>268</v>
       </c>
-      <c r="I46" t="s"/>
-      <c r="J46" t="s"/>
       <c r="K46" t="s">
         <v>269</v>
       </c>
@@ -4624,27 +4139,19 @@
       <c r="N46" t="s">
         <v>41</v>
       </c>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
       <c r="S46" t="s">
         <v>53</v>
       </c>
-      <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
       <c r="V46" t="s">
         <v>90</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
       <c r="Y46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
-      <c r="A47" t="n">
-        <v>153239.4502708575</v>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>153239.45027085749</v>
       </c>
       <c r="B47" t="s">
         <v>270</v>
@@ -4658,27 +4165,18 @@
       <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="F47" t="s"/>
-      <c r="G47" t="s"/>
       <c r="H47" t="s">
         <v>272</v>
       </c>
-      <c r="I47" t="s"/>
-      <c r="J47" t="s"/>
       <c r="K47" t="s">
         <v>273</v>
       </c>
-      <c r="L47" t="s"/>
       <c r="M47" t="s">
         <v>274</v>
       </c>
       <c r="N47" t="s">
         <v>41</v>
       </c>
-      <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
       <c r="S47" t="s">
         <v>53</v>
       </c>
@@ -4694,12 +4192,10 @@
       <c r="W47" t="s">
         <v>276</v>
       </c>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
-    </row>
-    <row r="48" spans="1:25">
-      <c r="A48" t="n">
-        <v>146208.3334844258</v>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>146208.33348442579</v>
       </c>
       <c r="B48" t="s">
         <v>277</v>
@@ -4713,17 +4209,12 @@
       <c r="E48" t="s">
         <v>30</v>
       </c>
-      <c r="F48" t="s"/>
-      <c r="G48" t="s"/>
       <c r="H48" t="s">
         <v>59</v>
       </c>
       <c r="I48" t="s">
         <v>175</v>
       </c>
-      <c r="J48" t="s"/>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
       <c r="M48" t="s">
         <v>52</v>
       </c>
@@ -4733,13 +4224,9 @@
       <c r="O48" t="s">
         <v>42</v>
       </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
       <c r="S48" t="s">
         <v>53</v>
       </c>
-      <c r="T48" t="s"/>
       <c r="U48" t="s">
         <v>33</v>
       </c>
@@ -4749,14 +4236,13 @@
       <c r="W48" t="s">
         <v>280</v>
       </c>
-      <c r="X48" t="s"/>
       <c r="Y48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
-      <c r="A49" t="n">
-        <v>145036.9140517627</v>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>145036.91405176269</v>
       </c>
       <c r="B49" t="s">
         <v>281</v>
@@ -4770,24 +4256,15 @@
       <c r="E49" t="s">
         <v>30</v>
       </c>
-      <c r="F49" t="s"/>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s"/>
-      <c r="J49" t="s"/>
       <c r="K49" t="s">
         <v>128</v>
       </c>
-      <c r="L49" t="s"/>
       <c r="M49" t="s">
         <v>61</v>
       </c>
-      <c r="N49" t="s"/>
       <c r="O49" t="s">
         <v>31</v>
       </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
       <c r="R49" t="s">
         <v>283</v>
       </c>
@@ -4797,9 +4274,6 @@
       <c r="T49" t="s">
         <v>103</v>
       </c>
-      <c r="U49" t="s"/>
-      <c r="V49" t="s"/>
-      <c r="W49" t="s"/>
       <c r="X49" t="s">
         <v>284</v>
       </c>
@@ -4807,9 +4281,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
-      <c r="A50" t="n">
-        <v>141449.4404937452</v>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>141449.44049374521</v>
       </c>
       <c r="B50" t="s">
         <v>285</v>
@@ -4823,16 +4297,12 @@
       <c r="E50" t="s">
         <v>30</v>
       </c>
-      <c r="F50" t="s"/>
-      <c r="G50" t="s"/>
       <c r="H50" t="s">
         <v>37</v>
       </c>
       <c r="I50" t="s">
         <v>164</v>
       </c>
-      <c r="J50" t="s"/>
-      <c r="K50" t="s"/>
       <c r="L50" t="s">
         <v>155</v>
       </c>
@@ -4845,27 +4315,21 @@
       <c r="O50" t="s">
         <v>42</v>
       </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
       <c r="S50" t="s">
         <v>43</v>
       </c>
-      <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
       <c r="V50" t="s">
         <v>131</v>
       </c>
       <c r="W50" t="s">
         <v>71</v>
       </c>
-      <c r="X50" t="s"/>
       <c r="Y50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
-      <c r="A51" t="n">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>141073.1121395331</v>
       </c>
       <c r="B51" t="s">
@@ -4880,15 +4344,12 @@
       <c r="E51" t="s">
         <v>30</v>
       </c>
-      <c r="F51" t="s"/>
-      <c r="G51" t="s"/>
       <c r="H51" t="s">
         <v>128</v>
       </c>
       <c r="I51" t="s">
         <v>194</v>
       </c>
-      <c r="J51" t="s"/>
       <c r="K51" t="s">
         <v>130</v>
       </c>
@@ -4901,27 +4362,19 @@
       <c r="N51" t="s">
         <v>41</v>
       </c>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
       <c r="S51" t="s">
         <v>53</v>
       </c>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
       <c r="V51" t="s">
         <v>131</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
       <c r="Y51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
-      <c r="A52" t="n">
-        <v>139186.1629746991</v>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>139186.16297469911</v>
       </c>
       <c r="B52" t="s">
         <v>289</v>
@@ -4935,44 +4388,31 @@
       <c r="E52" t="s">
         <v>30</v>
       </c>
-      <c r="F52" t="s"/>
-      <c r="G52" t="s"/>
       <c r="H52" t="s">
         <v>59</v>
       </c>
       <c r="I52" t="s">
         <v>175</v>
       </c>
-      <c r="J52" t="s"/>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
       <c r="M52" t="s">
         <v>52</v>
       </c>
-      <c r="N52" t="s"/>
       <c r="O52" t="s">
         <v>42</v>
       </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
       <c r="S52" t="s">
         <v>53</v>
       </c>
-      <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
       <c r="V52" t="s">
         <v>178</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
       <c r="Y52" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
-      <c r="A53" t="n">
-        <v>139084.5907752604</v>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>139084.59077526041</v>
       </c>
       <c r="B53" t="s">
         <v>293</v>
@@ -4986,15 +4426,9 @@
       <c r="E53" t="s">
         <v>30</v>
       </c>
-      <c r="F53" t="s"/>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s"/>
-      <c r="J53" t="s"/>
       <c r="K53" t="s">
         <v>295</v>
       </c>
-      <c r="L53" t="s"/>
       <c r="M53" t="s">
         <v>61</v>
       </c>
@@ -5004,8 +4438,6 @@
       <c r="O53" t="s">
         <v>31</v>
       </c>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
       <c r="R53" t="s">
         <v>140</v>
       </c>
@@ -5015,19 +4447,16 @@
       <c r="T53" t="s">
         <v>54</v>
       </c>
-      <c r="U53" t="s"/>
       <c r="V53" t="s">
         <v>64</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
       <c r="Y53" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
-      <c r="A54" t="n">
-        <v>137779.143043845</v>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>137779.14304384499</v>
       </c>
       <c r="B54" t="s">
         <v>297</v>
@@ -5041,46 +4470,34 @@
       <c r="E54" t="s">
         <v>30</v>
       </c>
-      <c r="F54" t="s"/>
-      <c r="G54" t="s"/>
       <c r="H54" t="s">
         <v>59</v>
       </c>
       <c r="I54" t="s">
         <v>164</v>
       </c>
-      <c r="J54" t="s"/>
-      <c r="K54" t="s"/>
       <c r="L54" t="s">
         <v>155</v>
       </c>
       <c r="M54" t="s">
         <v>61</v>
       </c>
-      <c r="N54" t="s"/>
       <c r="O54" t="s">
         <v>42</v>
       </c>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
       <c r="S54" t="s">
         <v>53</v>
       </c>
-      <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
       <c r="V54" t="s">
         <v>178</v>
       </c>
       <c r="W54" t="s">
         <v>299</v>
       </c>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
-    </row>
-    <row r="55" spans="1:25">
-      <c r="A55" t="n">
-        <v>137359.5678309918</v>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>137359.56783099179</v>
       </c>
       <c r="B55" t="s">
         <v>300</v>
@@ -5094,16 +4511,12 @@
       <c r="E55" t="s">
         <v>30</v>
       </c>
-      <c r="F55" t="s"/>
-      <c r="G55" t="s"/>
       <c r="H55" t="s">
         <v>59</v>
       </c>
       <c r="I55" t="s">
         <v>164</v>
       </c>
-      <c r="J55" t="s"/>
-      <c r="K55" t="s"/>
       <c r="L55" t="s">
         <v>155</v>
       </c>
@@ -5116,28 +4529,22 @@
       <c r="O55" t="s">
         <v>42</v>
       </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
       <c r="S55" t="s">
         <v>53</v>
       </c>
-      <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
       <c r="V55" t="s">
         <v>131</v>
       </c>
       <c r="W55" t="s">
         <v>302</v>
       </c>
-      <c r="X55" t="s"/>
       <c r="Y55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
-      <c r="A56" t="n">
-        <v>136477.7481330303</v>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>136477.74813303031</v>
       </c>
       <c r="B56" t="s">
         <v>303</v>
@@ -5151,38 +4558,27 @@
       <c r="E56" t="s">
         <v>30</v>
       </c>
-      <c r="F56" t="s"/>
-      <c r="G56" t="s"/>
       <c r="H56" t="s">
         <v>59</v>
       </c>
       <c r="I56" t="s">
         <v>175</v>
       </c>
-      <c r="J56" t="s"/>
       <c r="K56" t="s">
         <v>305</v>
       </c>
-      <c r="L56" t="s"/>
       <c r="M56" t="s">
         <v>52</v>
       </c>
       <c r="N56" t="s">
         <v>41</v>
       </c>
-      <c r="O56" t="s"/>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
       <c r="S56" t="s">
         <v>53</v>
       </c>
-      <c r="T56" t="s"/>
       <c r="U56" t="s">
         <v>33</v>
       </c>
-      <c r="V56" t="s"/>
-      <c r="W56" t="s"/>
       <c r="X56" t="s">
         <v>284</v>
       </c>
@@ -5190,8 +4586,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
-      <c r="A57" t="n">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>135667.4108413845</v>
       </c>
       <c r="B57" t="s">
@@ -5206,15 +4602,12 @@
       <c r="E57" t="s">
         <v>30</v>
       </c>
-      <c r="F57" t="s"/>
-      <c r="G57" t="s"/>
       <c r="H57" t="s">
         <v>37</v>
       </c>
       <c r="I57" t="s">
         <v>164</v>
       </c>
-      <c r="J57" t="s"/>
       <c r="K57" t="s">
         <v>309</v>
       </c>
@@ -5227,31 +4620,25 @@
       <c r="N57" t="s">
         <v>41</v>
       </c>
-      <c r="O57" t="s"/>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
       <c r="R57" t="s">
         <v>190</v>
       </c>
       <c r="S57" t="s">
         <v>43</v>
       </c>
-      <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
       <c r="V57" t="s">
         <v>131</v>
       </c>
       <c r="W57" t="s">
         <v>310</v>
       </c>
-      <c r="X57" t="s"/>
       <c r="Y57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
-      <c r="A58" t="n">
-        <v>135369.0389579312</v>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>135369.03895793119</v>
       </c>
       <c r="B58" t="s">
         <v>311</v>
@@ -5265,15 +4652,12 @@
       <c r="E58" t="s">
         <v>30</v>
       </c>
-      <c r="F58" t="s"/>
-      <c r="G58" t="s"/>
       <c r="H58" t="s">
         <v>37</v>
       </c>
       <c r="I58" t="s">
         <v>164</v>
       </c>
-      <c r="J58" t="s"/>
       <c r="K58" t="s">
         <v>309</v>
       </c>
@@ -5286,27 +4670,19 @@
       <c r="N58" t="s">
         <v>313</v>
       </c>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
       <c r="S58" t="s">
         <v>43</v>
       </c>
-      <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
       <c r="V58" t="s">
         <v>131</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
       <c r="Y58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
-      <c r="A59" t="n">
-        <v>132752.4299903671</v>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>132752.42999036709</v>
       </c>
       <c r="B59" t="s">
         <v>314</v>
@@ -5320,19 +4696,15 @@
       <c r="E59" t="s">
         <v>30</v>
       </c>
-      <c r="F59" t="s"/>
-      <c r="G59" t="s"/>
       <c r="H59" t="s">
         <v>59</v>
       </c>
       <c r="I59" t="s">
         <v>194</v>
       </c>
-      <c r="J59" t="s"/>
       <c r="K59" t="s">
         <v>225</v>
       </c>
-      <c r="L59" t="s"/>
       <c r="M59" t="s">
         <v>316</v>
       </c>
@@ -5342,26 +4714,19 @@
       <c r="O59" t="s">
         <v>42</v>
       </c>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
       <c r="S59" t="s">
         <v>53</v>
       </c>
-      <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
-      <c r="V59" t="s"/>
       <c r="W59" t="s">
         <v>317</v>
       </c>
-      <c r="X59" t="s"/>
       <c r="Y59" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
-      <c r="A60" t="n">
-        <v>132440.1927027871</v>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>132440.19270278711</v>
       </c>
       <c r="B60" t="s">
         <v>319</v>
@@ -5375,19 +4740,15 @@
       <c r="E60" t="s">
         <v>30</v>
       </c>
-      <c r="F60" t="s"/>
-      <c r="G60" t="s"/>
       <c r="H60" t="s">
         <v>59</v>
       </c>
       <c r="I60" t="s">
         <v>194</v>
       </c>
-      <c r="J60" t="s"/>
       <c r="K60" t="s">
         <v>322</v>
       </c>
-      <c r="L60" t="s"/>
       <c r="M60" t="s">
         <v>52</v>
       </c>
@@ -5397,13 +4758,9 @@
       <c r="O60" t="s">
         <v>42</v>
       </c>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
       <c r="S60" t="s">
         <v>53</v>
       </c>
-      <c r="T60" t="s"/>
       <c r="U60" t="s">
         <v>106</v>
       </c>
@@ -5413,13 +4770,12 @@
       <c r="W60" t="s">
         <v>323</v>
       </c>
-      <c r="X60" t="s"/>
       <c r="Y60" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
-      <c r="A61" t="n">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>132202.3864738578</v>
       </c>
       <c r="B61" t="s">
@@ -5434,19 +4790,15 @@
       <c r="E61" t="s">
         <v>30</v>
       </c>
-      <c r="F61" t="s"/>
-      <c r="G61" t="s"/>
       <c r="H61" t="s">
         <v>59</v>
       </c>
       <c r="I61" t="s">
         <v>194</v>
       </c>
-      <c r="J61" t="s"/>
       <c r="K61" t="s">
         <v>322</v>
       </c>
-      <c r="L61" t="s"/>
       <c r="M61" t="s">
         <v>52</v>
       </c>
@@ -5456,13 +4808,9 @@
       <c r="O61" t="s">
         <v>42</v>
       </c>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
       <c r="S61" t="s">
         <v>53</v>
       </c>
-      <c r="T61" t="s"/>
       <c r="U61" t="s">
         <v>33</v>
       </c>
@@ -5472,14 +4820,13 @@
       <c r="W61" t="s">
         <v>327</v>
       </c>
-      <c r="X61" t="s"/>
       <c r="Y61" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
-      <c r="A62" t="n">
-        <v>131779.1630840308</v>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>131779.16308403079</v>
       </c>
       <c r="B62" t="s">
         <v>328</v>
@@ -5490,35 +4837,18 @@
       <c r="E62" t="s">
         <v>30</v>
       </c>
-      <c r="F62" t="s"/>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s"/>
-      <c r="J62" t="s"/>
-      <c r="K62" t="s"/>
-      <c r="L62" t="s"/>
       <c r="M62" t="s">
         <v>330</v>
       </c>
-      <c r="N62" t="s"/>
       <c r="O62" t="s">
         <v>31</v>
       </c>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
       <c r="S62" t="s">
         <v>43</v>
       </c>
-      <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
-      <c r="V62" t="s"/>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
-    </row>
-    <row r="63" spans="1:25">
-      <c r="A63" t="n">
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>130565.8746957274</v>
       </c>
       <c r="B63" t="s">
@@ -5533,15 +4863,12 @@
       <c r="E63" t="s">
         <v>30</v>
       </c>
-      <c r="F63" t="s"/>
-      <c r="G63" t="s"/>
       <c r="H63" t="s">
         <v>77</v>
       </c>
       <c r="I63" t="s">
         <v>194</v>
       </c>
-      <c r="J63" t="s"/>
       <c r="K63" t="s">
         <v>333</v>
       </c>
@@ -5554,25 +4881,16 @@
       <c r="N63" t="s">
         <v>41</v>
       </c>
-      <c r="O63" t="s"/>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
       <c r="S63" t="s">
         <v>53</v>
       </c>
-      <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
-      <c r="V63" t="s"/>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
       <c r="Y63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
-      <c r="A64" t="n">
-        <v>129743.5682126456</v>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>129743.56821264559</v>
       </c>
       <c r="B64" t="s">
         <v>334</v>
@@ -5586,44 +4904,31 @@
       <c r="E64" t="s">
         <v>30</v>
       </c>
-      <c r="F64" t="s"/>
-      <c r="G64" t="s"/>
       <c r="H64" t="s">
         <v>128</v>
       </c>
       <c r="I64" t="s">
         <v>164</v>
       </c>
-      <c r="J64" t="s"/>
       <c r="K64" t="s">
         <v>337</v>
       </c>
-      <c r="L64" t="s"/>
       <c r="M64" t="s">
         <v>338</v>
       </c>
       <c r="N64" t="s">
         <v>41</v>
       </c>
-      <c r="O64" t="s"/>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
       <c r="S64" t="s">
         <v>53</v>
       </c>
-      <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
-      <c r="V64" t="s"/>
       <c r="W64" t="s">
         <v>339</v>
       </c>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
-    </row>
-    <row r="65" spans="1:25">
-      <c r="A65" t="n">
-        <v>129031.5248838021</v>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>129031.52488380211</v>
       </c>
       <c r="B65" t="s">
         <v>340</v>
@@ -5637,44 +4942,31 @@
       <c r="E65" t="s">
         <v>30</v>
       </c>
-      <c r="F65" t="s"/>
-      <c r="G65" t="s"/>
       <c r="H65" t="s">
         <v>59</v>
       </c>
       <c r="I65" t="s">
         <v>194</v>
       </c>
-      <c r="J65" t="s"/>
       <c r="K65" t="s">
         <v>165</v>
       </c>
-      <c r="L65" t="s"/>
       <c r="M65" t="s">
         <v>343</v>
       </c>
-      <c r="N65" t="s"/>
       <c r="O65" t="s">
         <v>42</v>
       </c>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
       <c r="S65" t="s">
         <v>53</v>
       </c>
-      <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
-      <c r="V65" t="s"/>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
       <c r="Y65" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
-      <c r="A66" t="n">
-        <v>128393.0958745772</v>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>128393.09587457719</v>
       </c>
       <c r="B66" t="s">
         <v>345</v>
@@ -5688,42 +4980,28 @@
       <c r="E66" t="s">
         <v>30</v>
       </c>
-      <c r="F66" t="s"/>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s"/>
-      <c r="J66" t="s"/>
-      <c r="K66" t="s"/>
-      <c r="L66" t="s"/>
       <c r="M66" t="s">
         <v>347</v>
       </c>
-      <c r="N66" t="s"/>
       <c r="O66" t="s">
         <v>31</v>
       </c>
-      <c r="P66" t="s"/>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
       <c r="S66" t="s">
         <v>53</v>
       </c>
       <c r="T66" t="s">
         <v>348</v>
       </c>
-      <c r="U66" t="s"/>
       <c r="V66" t="s">
         <v>214</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
       <c r="Y66" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
-      <c r="A67" t="n">
-        <v>126037.1804338001</v>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>126037.18043380009</v>
       </c>
       <c r="B67" t="s">
         <v>350</v>
@@ -5737,44 +5015,31 @@
       <c r="E67" t="s">
         <v>30</v>
       </c>
-      <c r="F67" t="s"/>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s"/>
-      <c r="J67" t="s"/>
       <c r="K67" t="s">
         <v>353</v>
       </c>
-      <c r="L67" t="s"/>
       <c r="M67" t="s">
         <v>219</v>
       </c>
       <c r="N67" t="s">
         <v>41</v>
       </c>
-      <c r="O67" t="s"/>
-      <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
       <c r="S67" t="s">
         <v>53</v>
       </c>
-      <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
       <c r="V67" t="s">
         <v>354</v>
       </c>
       <c r="W67" t="s">
         <v>355</v>
       </c>
-      <c r="X67" t="s"/>
       <c r="Y67" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
-      <c r="A68" t="n">
-        <v>123013.4151752596</v>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>123013.41517525959</v>
       </c>
       <c r="B68" t="s">
         <v>357</v>
@@ -5788,17 +5053,12 @@
       <c r="E68" t="s">
         <v>30</v>
       </c>
-      <c r="F68" t="s"/>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s"/>
       <c r="I68" t="s">
         <v>194</v>
       </c>
-      <c r="J68" t="s"/>
       <c r="K68" t="s">
         <v>360</v>
       </c>
-      <c r="L68" t="s"/>
       <c r="M68" t="s">
         <v>316</v>
       </c>
@@ -5808,23 +5068,15 @@
       <c r="O68" t="s">
         <v>42</v>
       </c>
-      <c r="P68" t="s"/>
-      <c r="Q68" t="s"/>
-      <c r="R68" t="s"/>
       <c r="S68" t="s">
         <v>53</v>
       </c>
-      <c r="T68" t="s"/>
-      <c r="U68" t="s"/>
-      <c r="V68" t="s"/>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
       <c r="Y68" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
-      <c r="A69" t="n">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>120792.7804746464</v>
       </c>
       <c r="B69" t="s">
@@ -5839,13 +5091,6 @@
       <c r="E69" t="s">
         <v>30</v>
       </c>
-      <c r="F69" t="s"/>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s"/>
-      <c r="J69" t="s"/>
-      <c r="K69" t="s"/>
-      <c r="L69" t="s"/>
       <c r="M69" t="s">
         <v>363</v>
       </c>
@@ -5855,23 +5100,15 @@
       <c r="O69" t="s">
         <v>31</v>
       </c>
-      <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
       <c r="S69" t="s">
         <v>53</v>
       </c>
       <c r="T69" t="s">
         <v>364</v>
       </c>
-      <c r="U69" t="s"/>
-      <c r="V69" t="s"/>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
-    </row>
-    <row r="70" spans="1:25">
-      <c r="A70" t="n">
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>119371.7993757676</v>
       </c>
       <c r="B70" t="s">
@@ -5886,15 +5123,12 @@
       <c r="E70" t="s">
         <v>30</v>
       </c>
-      <c r="F70" t="s"/>
-      <c r="G70" t="s"/>
       <c r="H70" t="s">
         <v>37</v>
       </c>
       <c r="I70" t="s">
         <v>194</v>
       </c>
-      <c r="J70" t="s"/>
       <c r="K70" t="s">
         <v>165</v>
       </c>
@@ -5907,26 +5141,18 @@
       <c r="N70" t="s">
         <v>41</v>
       </c>
-      <c r="O70" t="s"/>
-      <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
-      <c r="R70" t="s"/>
       <c r="S70" t="s">
         <v>43</v>
       </c>
-      <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
-      <c r="V70" t="s"/>
       <c r="W70" t="s">
         <v>71</v>
       </c>
-      <c r="X70" t="s"/>
       <c r="Y70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
-      <c r="A71" t="n">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>119087.6269845981</v>
       </c>
       <c r="B71" t="s">
@@ -5941,12 +5167,6 @@
       <c r="E71" t="s">
         <v>30</v>
       </c>
-      <c r="F71" t="s"/>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s"/>
-      <c r="J71" t="s"/>
-      <c r="K71" t="s"/>
       <c r="L71" t="s">
         <v>89</v>
       </c>
@@ -5959,27 +5179,21 @@
       <c r="O71" t="s">
         <v>42</v>
       </c>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
       <c r="R71" t="s">
         <v>116</v>
       </c>
       <c r="S71" t="s">
         <v>53</v>
       </c>
-      <c r="T71" t="s"/>
-      <c r="U71" t="s"/>
       <c r="V71" t="s">
         <v>90</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
       <c r="Y71" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
-      <c r="A72" t="n">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>118722.5709221354</v>
       </c>
       <c r="B72" t="s">
@@ -5994,11 +5208,6 @@
       <c r="E72" t="s">
         <v>30</v>
       </c>
-      <c r="F72" t="s"/>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s"/>
-      <c r="J72" t="s"/>
       <c r="K72" t="s">
         <v>171</v>
       </c>
@@ -6011,26 +5220,18 @@
       <c r="N72" t="s">
         <v>41</v>
       </c>
-      <c r="O72" t="s"/>
-      <c r="P72" t="s"/>
-      <c r="Q72" t="s"/>
-      <c r="R72" t="s"/>
       <c r="S72" t="s">
         <v>53</v>
       </c>
-      <c r="T72" t="s"/>
-      <c r="U72" t="s"/>
       <c r="V72" t="s">
         <v>371</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
       <c r="Y72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
-      <c r="A73" t="n">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>115640.9786346583</v>
       </c>
       <c r="B73" t="s">
@@ -6045,39 +5246,24 @@
       <c r="E73" t="s">
         <v>30</v>
       </c>
-      <c r="F73" t="s"/>
-      <c r="G73" t="s"/>
       <c r="H73" t="s">
         <v>37</v>
       </c>
       <c r="I73" t="s">
         <v>175</v>
       </c>
-      <c r="J73" t="s"/>
-      <c r="K73" t="s"/>
-      <c r="L73" t="s"/>
       <c r="M73" t="s">
         <v>343</v>
       </c>
       <c r="N73" t="s">
         <v>41</v>
       </c>
-      <c r="O73" t="s"/>
-      <c r="P73" t="s"/>
-      <c r="Q73" t="s"/>
-      <c r="R73" t="s"/>
       <c r="S73" t="s">
         <v>43</v>
       </c>
-      <c r="T73" t="s"/>
-      <c r="U73" t="s"/>
-      <c r="V73" t="s"/>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
-    </row>
-    <row r="74" spans="1:25">
-      <c r="A74" t="n">
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>113408.2706396373</v>
       </c>
       <c r="B74" t="s">
@@ -6092,44 +5278,31 @@
       <c r="E74" t="s">
         <v>30</v>
       </c>
-      <c r="F74" t="s"/>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s"/>
-      <c r="J74" t="s"/>
-      <c r="K74" t="s"/>
-      <c r="L74" t="s"/>
       <c r="M74" t="s">
         <v>379</v>
       </c>
       <c r="N74" t="s">
         <v>41</v>
       </c>
-      <c r="O74" t="s"/>
-      <c r="P74" t="s"/>
-      <c r="Q74" t="s"/>
-      <c r="R74" t="s"/>
       <c r="S74" t="s">
         <v>53</v>
       </c>
       <c r="T74" t="s">
         <v>380</v>
       </c>
-      <c r="U74" t="s"/>
       <c r="V74" t="s">
         <v>64</v>
       </c>
       <c r="W74" t="s">
         <v>381</v>
       </c>
-      <c r="X74" t="s"/>
       <c r="Y74" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
-      <c r="A75" t="n">
-        <v>113248.3675460006</v>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>113248.36754600061</v>
       </c>
       <c r="B75" t="s">
         <v>383</v>
@@ -6143,13 +5316,6 @@
       <c r="E75" t="s">
         <v>30</v>
       </c>
-      <c r="F75" t="s"/>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s"/>
-      <c r="J75" t="s"/>
-      <c r="K75" t="s"/>
-      <c r="L75" t="s"/>
       <c r="M75" t="s">
         <v>189</v>
       </c>
@@ -6159,8 +5325,6 @@
       <c r="O75" t="s">
         <v>31</v>
       </c>
-      <c r="P75" t="s"/>
-      <c r="Q75" t="s"/>
       <c r="R75" t="s">
         <v>190</v>
       </c>
@@ -6179,11 +5343,9 @@
       <c r="W75" t="s">
         <v>385</v>
       </c>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
-    </row>
-    <row r="76" spans="1:25">
-      <c r="A76" t="n">
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>113167.5205691903</v>
       </c>
       <c r="B76" t="s">
@@ -6198,17 +5360,12 @@
       <c r="E76" t="s">
         <v>30</v>
       </c>
-      <c r="F76" t="s"/>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s"/>
       <c r="I76" t="s">
         <v>175</v>
       </c>
-      <c r="J76" t="s"/>
       <c r="K76" t="s">
         <v>225</v>
       </c>
-      <c r="L76" t="s"/>
       <c r="M76" t="s">
         <v>189</v>
       </c>
@@ -6218,24 +5375,16 @@
       <c r="O76" t="s">
         <v>42</v>
       </c>
-      <c r="P76" t="s"/>
-      <c r="Q76" t="s"/>
-      <c r="R76" t="s"/>
       <c r="S76" t="s">
         <v>53</v>
       </c>
-      <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
       <c r="V76" t="s">
         <v>131</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
-    </row>
-    <row r="77" spans="1:25">
-      <c r="A77" t="n">
-        <v>111648.9634479461</v>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>111648.96344794609</v>
       </c>
       <c r="B77" t="s">
         <v>388</v>
@@ -6249,24 +5398,15 @@
       <c r="E77" t="s">
         <v>30</v>
       </c>
-      <c r="F77" t="s"/>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s"/>
-      <c r="J77" t="s"/>
       <c r="K77" t="s">
         <v>50</v>
       </c>
-      <c r="L77" t="s"/>
       <c r="M77" t="s">
         <v>390</v>
       </c>
       <c r="N77" t="s">
         <v>41</v>
       </c>
-      <c r="O77" t="s"/>
-      <c r="P77" t="s"/>
-      <c r="Q77" t="s"/>
       <c r="R77" t="s">
         <v>190</v>
       </c>
@@ -6276,21 +5416,19 @@
       <c r="T77" t="s">
         <v>348</v>
       </c>
-      <c r="U77" t="s"/>
       <c r="V77" t="s">
         <v>214</v>
       </c>
       <c r="W77" t="s">
         <v>391</v>
       </c>
-      <c r="X77" t="s"/>
       <c r="Y77" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
-      <c r="A78" t="n">
-        <v>109844.9300920429</v>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>109844.93009204289</v>
       </c>
       <c r="B78" t="s">
         <v>393</v>
@@ -6304,15 +5442,12 @@
       <c r="E78" t="s">
         <v>30</v>
       </c>
-      <c r="F78" t="s"/>
-      <c r="G78" t="s"/>
       <c r="H78" t="s">
         <v>59</v>
       </c>
       <c r="I78" t="s">
         <v>164</v>
       </c>
-      <c r="J78" t="s"/>
       <c r="K78" t="s">
         <v>165</v>
       </c>
@@ -6325,29 +5460,22 @@
       <c r="N78" t="s">
         <v>41</v>
       </c>
-      <c r="O78" t="s"/>
-      <c r="P78" t="s"/>
-      <c r="Q78" t="s"/>
-      <c r="R78" t="s"/>
       <c r="S78" t="s">
         <v>53</v>
       </c>
-      <c r="T78" t="s"/>
-      <c r="U78" t="s"/>
       <c r="V78" t="s">
         <v>131</v>
       </c>
       <c r="W78" t="s">
         <v>395</v>
       </c>
-      <c r="X78" t="s"/>
       <c r="Y78" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
-      <c r="A79" t="n">
-        <v>109541.8634853232</v>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>109541.86348532321</v>
       </c>
       <c r="B79" t="s">
         <v>396</v>
@@ -6361,15 +5489,12 @@
       <c r="E79" t="s">
         <v>30</v>
       </c>
-      <c r="F79" t="s"/>
-      <c r="G79" t="s"/>
       <c r="H79" t="s">
         <v>37</v>
       </c>
       <c r="I79" t="s">
         <v>164</v>
       </c>
-      <c r="J79" t="s"/>
       <c r="K79" t="s">
         <v>165</v>
       </c>
@@ -6382,26 +5507,18 @@
       <c r="N79" t="s">
         <v>41</v>
       </c>
-      <c r="O79" t="s"/>
-      <c r="P79" t="s"/>
-      <c r="Q79" t="s"/>
-      <c r="R79" t="s"/>
       <c r="S79" t="s">
         <v>43</v>
       </c>
-      <c r="T79" t="s"/>
-      <c r="U79" t="s"/>
       <c r="V79" t="s">
         <v>131</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
       <c r="Y79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
-      <c r="A80" t="n">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>107916.712772524</v>
       </c>
       <c r="B80" t="s">
@@ -6416,48 +5533,37 @@
       <c r="E80" t="s">
         <v>30</v>
       </c>
-      <c r="F80" t="s"/>
-      <c r="G80" t="s"/>
       <c r="H80" t="s">
         <v>59</v>
       </c>
       <c r="I80" t="s">
         <v>194</v>
       </c>
-      <c r="J80" t="s"/>
       <c r="K80" t="s">
         <v>400</v>
       </c>
-      <c r="L80" t="s"/>
       <c r="M80" t="s">
         <v>254</v>
       </c>
       <c r="N80" t="s">
         <v>41</v>
       </c>
-      <c r="O80" t="s"/>
-      <c r="P80" t="s"/>
-      <c r="Q80" t="s"/>
-      <c r="R80" t="s"/>
       <c r="S80" t="s">
         <v>53</v>
       </c>
-      <c r="T80" t="s"/>
       <c r="U80" t="s">
         <v>33</v>
       </c>
-      <c r="V80" t="s"/>
       <c r="W80" t="s">
         <v>401</v>
       </c>
-      <c r="X80" t="s"/>
       <c r="Y80" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
-      <c r="A81" t="n">
-        <v>107490.6222949641</v>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>107490.62229496409</v>
       </c>
       <c r="B81" t="s">
         <v>403</v>
@@ -6471,19 +5577,15 @@
       <c r="E81" t="s">
         <v>30</v>
       </c>
-      <c r="F81" t="s"/>
-      <c r="G81" t="s"/>
       <c r="H81" t="s">
         <v>37</v>
       </c>
       <c r="I81" t="s">
         <v>164</v>
       </c>
-      <c r="J81" t="s"/>
       <c r="K81" t="s">
         <v>165</v>
       </c>
-      <c r="L81" t="s"/>
       <c r="M81" t="s">
         <v>406</v>
       </c>
@@ -6493,23 +5595,15 @@
       <c r="O81" t="s">
         <v>42</v>
       </c>
-      <c r="P81" t="s"/>
-      <c r="Q81" t="s"/>
-      <c r="R81" t="s"/>
-      <c r="S81" t="s"/>
-      <c r="T81" t="s"/>
-      <c r="U81" t="s"/>
       <c r="V81" t="s">
         <v>131</v>
       </c>
       <c r="W81" t="s">
         <v>71</v>
       </c>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
-    </row>
-    <row r="82" spans="1:25">
-      <c r="A82" t="n">
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>107120.9324900151</v>
       </c>
       <c r="B82" t="s">
@@ -6524,46 +5618,34 @@
       <c r="E82" t="s">
         <v>30</v>
       </c>
-      <c r="F82" t="s"/>
-      <c r="G82" t="s"/>
       <c r="H82" t="s">
         <v>37</v>
       </c>
       <c r="I82" t="s">
         <v>164</v>
       </c>
-      <c r="J82" t="s"/>
       <c r="K82" t="s">
         <v>176</v>
       </c>
-      <c r="L82" t="s"/>
       <c r="M82" t="s">
         <v>52</v>
       </c>
-      <c r="N82" t="s"/>
-      <c r="O82" t="s"/>
-      <c r="P82" t="s"/>
-      <c r="Q82" t="s"/>
-      <c r="R82" t="s"/>
       <c r="S82" t="s">
         <v>43</v>
       </c>
-      <c r="T82" t="s"/>
       <c r="U82" t="s">
         <v>226</v>
       </c>
       <c r="V82" t="s">
         <v>178</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
       <c r="Y82" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
-      <c r="A83" t="n">
-        <v>106907.2246503875</v>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>106907.22465038751</v>
       </c>
       <c r="B83" t="s">
         <v>410</v>
@@ -6577,13 +5659,9 @@
       <c r="E83" t="s">
         <v>30</v>
       </c>
-      <c r="F83" t="s"/>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s"/>
       <c r="I83" t="s">
         <v>164</v>
       </c>
-      <c r="J83" t="s"/>
       <c r="K83" t="s">
         <v>165</v>
       </c>
@@ -6593,25 +5671,15 @@
       <c r="M83" t="s">
         <v>61</v>
       </c>
-      <c r="N83" t="s"/>
-      <c r="O83" t="s"/>
-      <c r="P83" t="s"/>
-      <c r="Q83" t="s"/>
-      <c r="R83" t="s"/>
-      <c r="S83" t="s"/>
-      <c r="T83" t="s"/>
-      <c r="U83" t="s"/>
       <c r="V83" t="s">
         <v>412</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
       <c r="Y83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
-      <c r="A84" t="n">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>106752.0499034001</v>
       </c>
       <c r="B84" t="s">
@@ -6626,44 +5694,31 @@
       <c r="E84" t="s">
         <v>30</v>
       </c>
-      <c r="F84" t="s"/>
-      <c r="G84" t="s"/>
       <c r="H84" t="s">
         <v>272</v>
       </c>
-      <c r="I84" t="s"/>
-      <c r="J84" t="s"/>
       <c r="K84" t="s">
         <v>416</v>
       </c>
-      <c r="L84" t="s"/>
       <c r="M84" t="s">
         <v>417</v>
       </c>
       <c r="N84" t="s">
         <v>41</v>
       </c>
-      <c r="O84" t="s"/>
-      <c r="P84" t="s"/>
-      <c r="Q84" t="s"/>
-      <c r="R84" t="s"/>
       <c r="S84" t="s">
         <v>53</v>
       </c>
       <c r="T84" t="s">
         <v>418</v>
       </c>
-      <c r="U84" t="s"/>
       <c r="V84" t="s">
         <v>214</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
-    </row>
-    <row r="85" spans="1:25">
-      <c r="A85" t="n">
-        <v>105930.7852821888</v>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>105930.78528218879</v>
       </c>
       <c r="B85" t="s">
         <v>419</v>
@@ -6677,13 +5732,9 @@
       <c r="E85" t="s">
         <v>30</v>
       </c>
-      <c r="F85" t="s"/>
-      <c r="G85" t="s"/>
       <c r="H85" t="s">
         <v>77</v>
       </c>
-      <c r="I85" t="s"/>
-      <c r="J85" t="s"/>
       <c r="K85" t="s">
         <v>159</v>
       </c>
@@ -6696,16 +5747,9 @@
       <c r="N85" t="s">
         <v>41</v>
       </c>
-      <c r="O85" t="s"/>
-      <c r="P85" t="s"/>
-      <c r="Q85" t="s"/>
-      <c r="R85" t="s"/>
       <c r="S85" t="s">
         <v>53</v>
       </c>
-      <c r="T85" t="s"/>
-      <c r="U85" t="s"/>
-      <c r="V85" t="s"/>
       <c r="W85" t="s">
         <v>421</v>
       </c>
@@ -6716,8 +5760,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
-      <c r="A86" t="n">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>105438.5023599026</v>
       </c>
       <c r="B86" t="s">
@@ -6732,16 +5776,12 @@
       <c r="E86" t="s">
         <v>30</v>
       </c>
-      <c r="F86" t="s"/>
-      <c r="G86" t="s"/>
       <c r="H86" t="s">
         <v>37</v>
       </c>
       <c r="I86" t="s">
         <v>164</v>
       </c>
-      <c r="J86" t="s"/>
-      <c r="K86" t="s"/>
       <c r="L86" t="s">
         <v>155</v>
       </c>
@@ -6751,25 +5791,16 @@
       <c r="N86" t="s">
         <v>41</v>
       </c>
-      <c r="O86" t="s"/>
-      <c r="P86" t="s"/>
-      <c r="Q86" t="s"/>
-      <c r="R86" t="s"/>
       <c r="S86" t="s">
         <v>43</v>
       </c>
-      <c r="T86" t="s"/>
-      <c r="U86" t="s"/>
-      <c r="V86" t="s"/>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
       <c r="Y86" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
-      <c r="A87" t="n">
-        <v>104714.7964655045</v>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>104714.79646550451</v>
       </c>
       <c r="B87" t="s">
         <v>424</v>
@@ -6783,43 +5814,30 @@
       <c r="E87" t="s">
         <v>30</v>
       </c>
-      <c r="F87" t="s"/>
-      <c r="G87" t="s"/>
       <c r="H87" t="s">
         <v>59</v>
       </c>
       <c r="I87" t="s">
         <v>175</v>
       </c>
-      <c r="J87" t="s"/>
       <c r="K87" t="s">
         <v>309</v>
       </c>
-      <c r="L87" t="s"/>
       <c r="M87" t="s">
         <v>254</v>
       </c>
-      <c r="N87" t="s"/>
-      <c r="O87" t="s"/>
-      <c r="P87" t="s"/>
-      <c r="Q87" t="s"/>
-      <c r="R87" t="s"/>
       <c r="S87" t="s">
         <v>53</v>
       </c>
-      <c r="T87" t="s"/>
-      <c r="U87" t="s"/>
       <c r="V87" t="s">
         <v>131</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
       <c r="Y87" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
-      <c r="A88" t="n">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>103538.7907322948</v>
       </c>
       <c r="B88" t="s">
@@ -6834,42 +5852,28 @@
       <c r="E88" t="s">
         <v>30</v>
       </c>
-      <c r="F88" t="s"/>
-      <c r="G88" t="s"/>
       <c r="H88" t="s">
         <v>37</v>
       </c>
       <c r="I88" t="s">
         <v>164</v>
       </c>
-      <c r="J88" t="s"/>
       <c r="K88" t="s">
         <v>429</v>
       </c>
-      <c r="L88" t="s"/>
       <c r="M88" t="s">
         <v>430</v>
       </c>
-      <c r="N88" t="s"/>
-      <c r="O88" t="s"/>
-      <c r="P88" t="s"/>
-      <c r="Q88" t="s"/>
-      <c r="R88" t="s"/>
-      <c r="S88" t="s"/>
-      <c r="T88" t="s"/>
-      <c r="U88" t="s"/>
       <c r="V88" t="s">
         <v>131</v>
       </c>
-      <c r="W88" t="s"/>
       <c r="X88" t="s">
         <v>431</v>
       </c>
-      <c r="Y88" t="s"/>
-    </row>
-    <row r="89" spans="1:25">
-      <c r="A89" t="n">
-        <v>93774.19816883204</v>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>93774.198168832037</v>
       </c>
       <c r="B89" t="s">
         <v>432</v>
@@ -6883,42 +5887,28 @@
       <c r="E89" t="s">
         <v>30</v>
       </c>
-      <c r="F89" t="s"/>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s"/>
       <c r="I89" t="s">
         <v>194</v>
       </c>
-      <c r="J89" t="s"/>
       <c r="K89" t="s">
         <v>434</v>
       </c>
-      <c r="L89" t="s"/>
       <c r="M89" t="s">
         <v>316</v>
       </c>
-      <c r="N89" t="s"/>
-      <c r="O89" t="s"/>
-      <c r="P89" t="s"/>
-      <c r="Q89" t="s"/>
-      <c r="R89" t="s"/>
       <c r="S89" t="s">
         <v>53</v>
       </c>
-      <c r="T89" t="s"/>
-      <c r="U89" t="s"/>
       <c r="V89" t="s">
         <v>131</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
       <c r="Y89" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
-      <c r="A90" t="n">
-        <v>92738.79897680254</v>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>92738.798976802544</v>
       </c>
       <c r="B90" t="s">
         <v>435</v>
@@ -6929,38 +5919,22 @@
       <c r="E90" t="s">
         <v>30</v>
       </c>
-      <c r="F90" t="s"/>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s"/>
-      <c r="J90" t="s"/>
       <c r="K90" t="s">
         <v>295</v>
       </c>
-      <c r="L90" t="s"/>
-      <c r="M90" t="s"/>
-      <c r="N90" t="s"/>
       <c r="O90" t="s">
         <v>31</v>
       </c>
-      <c r="P90" t="s"/>
-      <c r="Q90" t="s"/>
-      <c r="R90" t="s"/>
       <c r="S90" t="s">
         <v>53</v>
       </c>
-      <c r="T90" t="s"/>
       <c r="U90" t="s">
         <v>33</v>
       </c>
-      <c r="V90" t="s"/>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
-    </row>
-    <row r="91" spans="1:25">
-      <c r="A91" t="n">
-        <v>89479.56933414339</v>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89479.569334143394</v>
       </c>
       <c r="B91" t="s">
         <v>437</v>
@@ -6974,20 +5948,9 @@
       <c r="E91" t="s">
         <v>30</v>
       </c>
-      <c r="F91" t="s"/>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s"/>
-      <c r="J91" t="s"/>
-      <c r="K91" t="s"/>
-      <c r="L91" t="s"/>
       <c r="M91" t="s">
         <v>440</v>
       </c>
-      <c r="N91" t="s"/>
-      <c r="O91" t="s"/>
-      <c r="P91" t="s"/>
-      <c r="Q91" t="s"/>
       <c r="R91" t="s">
         <v>190</v>
       </c>
@@ -6997,17 +5960,13 @@
       <c r="T91" t="s">
         <v>441</v>
       </c>
-      <c r="U91" t="s"/>
       <c r="V91" t="s">
         <v>214</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
-    </row>
-    <row r="92" spans="1:25">
-      <c r="A92" t="n">
-        <v>88756.36068914906</v>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>88756.360689149064</v>
       </c>
       <c r="B92" t="s">
         <v>442</v>
@@ -7021,15 +5980,12 @@
       <c r="E92" t="s">
         <v>30</v>
       </c>
-      <c r="F92" t="s"/>
-      <c r="G92" t="s"/>
       <c r="H92" t="s">
         <v>59</v>
       </c>
       <c r="I92" t="s">
         <v>164</v>
       </c>
-      <c r="J92" t="s"/>
       <c r="K92" t="s">
         <v>309</v>
       </c>
@@ -7042,25 +5998,16 @@
       <c r="N92" t="s">
         <v>41</v>
       </c>
-      <c r="O92" t="s"/>
-      <c r="P92" t="s"/>
-      <c r="Q92" t="s"/>
-      <c r="R92" t="s"/>
       <c r="S92" t="s">
         <v>53</v>
       </c>
-      <c r="T92" t="s"/>
-      <c r="U92" t="s"/>
-      <c r="V92" t="s"/>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
       <c r="Y92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
-      <c r="A93" t="n">
-        <v>88416.7770294818</v>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>88416.777029481804</v>
       </c>
       <c r="B93" t="s">
         <v>444</v>
@@ -7074,42 +6021,28 @@
       <c r="E93" t="s">
         <v>30</v>
       </c>
-      <c r="F93" t="s"/>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s"/>
-      <c r="J93" t="s"/>
       <c r="K93" t="s">
         <v>447</v>
       </c>
-      <c r="L93" t="s"/>
       <c r="M93" t="s">
         <v>219</v>
       </c>
       <c r="N93" t="s">
         <v>41</v>
       </c>
-      <c r="O93" t="s"/>
-      <c r="P93" t="s"/>
-      <c r="Q93" t="s"/>
-      <c r="R93" t="s"/>
       <c r="S93" t="s">
         <v>43</v>
       </c>
-      <c r="T93" t="s"/>
-      <c r="U93" t="s"/>
       <c r="V93" t="s">
         <v>64</v>
       </c>
       <c r="W93" t="s">
         <v>448</v>
       </c>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
-    </row>
-    <row r="94" spans="1:25">
-      <c r="A94" t="n">
-        <v>87280.07547196251</v>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>87280.075471962511</v>
       </c>
       <c r="B94" t="s">
         <v>449</v>
@@ -7123,42 +6056,28 @@
       <c r="E94" t="s">
         <v>30</v>
       </c>
-      <c r="F94" t="s"/>
-      <c r="G94" t="s"/>
       <c r="H94" t="s">
         <v>128</v>
       </c>
-      <c r="I94" t="s"/>
-      <c r="J94" t="s"/>
       <c r="K94" t="s">
         <v>400</v>
       </c>
-      <c r="L94" t="s"/>
       <c r="M94" t="s">
         <v>189</v>
       </c>
-      <c r="N94" t="s"/>
       <c r="O94" t="s">
         <v>42</v>
       </c>
-      <c r="P94" t="s"/>
-      <c r="Q94" t="s"/>
-      <c r="R94" t="s"/>
       <c r="S94" t="s">
         <v>53</v>
       </c>
-      <c r="T94" t="s"/>
-      <c r="U94" t="s"/>
-      <c r="V94" t="s"/>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
       <c r="Y94" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
-      <c r="A95" t="n">
-        <v>85966.0458297517</v>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>85966.045829751703</v>
       </c>
       <c r="B95" t="s">
         <v>453</v>
@@ -7172,19 +6091,15 @@
       <c r="E95" t="s">
         <v>30</v>
       </c>
-      <c r="F95" t="s"/>
-      <c r="G95" t="s"/>
       <c r="H95" t="s">
         <v>59</v>
       </c>
       <c r="I95" t="s">
         <v>194</v>
       </c>
-      <c r="J95" t="s"/>
       <c r="K95" t="s">
         <v>322</v>
       </c>
-      <c r="L95" t="s"/>
       <c r="M95" t="s">
         <v>52</v>
       </c>
@@ -7194,20 +6109,10 @@
       <c r="O95" t="s">
         <v>42</v>
       </c>
-      <c r="P95" t="s"/>
-      <c r="Q95" t="s"/>
-      <c r="R95" t="s"/>
-      <c r="S95" t="s"/>
-      <c r="T95" t="s"/>
-      <c r="U95" t="s"/>
-      <c r="V95" t="s"/>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
-      <c r="Y95" t="s"/>
-    </row>
-    <row r="96" spans="1:25">
-      <c r="A96" t="n">
-        <v>85456.01445292441</v>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>85456.014452924413</v>
       </c>
       <c r="B96" t="s">
         <v>456</v>
@@ -7221,36 +6126,24 @@
       <c r="E96" t="s">
         <v>30</v>
       </c>
-      <c r="F96" t="s"/>
-      <c r="G96" t="s"/>
       <c r="H96" t="s">
         <v>37</v>
       </c>
       <c r="I96" t="s">
         <v>164</v>
       </c>
-      <c r="J96" t="s"/>
       <c r="K96" t="s">
         <v>165</v>
       </c>
-      <c r="L96" t="s"/>
       <c r="M96" t="s">
         <v>61</v>
       </c>
-      <c r="N96" t="s"/>
-      <c r="O96" t="s"/>
-      <c r="P96" t="s"/>
-      <c r="Q96" t="s"/>
-      <c r="R96" t="s"/>
       <c r="S96" t="s">
         <v>43</v>
       </c>
-      <c r="T96" t="s"/>
-      <c r="U96" t="s"/>
       <c r="V96" t="s">
         <v>131</v>
       </c>
-      <c r="W96" t="s"/>
       <c r="X96" t="s">
         <v>431</v>
       </c>
@@ -7258,9 +6151,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
-      <c r="A97" t="n">
-        <v>85344.88287431456</v>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>85344.882874314557</v>
       </c>
       <c r="B97" t="s">
         <v>459</v>
@@ -7274,20 +6167,9 @@
       <c r="E97" t="s">
         <v>30</v>
       </c>
-      <c r="F97" t="s"/>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s"/>
-      <c r="J97" t="s"/>
-      <c r="K97" t="s"/>
-      <c r="L97" t="s"/>
       <c r="M97" t="s">
         <v>52</v>
       </c>
-      <c r="N97" t="s"/>
-      <c r="O97" t="s"/>
-      <c r="P97" t="s"/>
-      <c r="Q97" t="s"/>
       <c r="R97" t="s">
         <v>190</v>
       </c>
@@ -7297,21 +6179,19 @@
       <c r="T97" t="s">
         <v>462</v>
       </c>
-      <c r="U97" t="s"/>
       <c r="V97" t="s">
         <v>214</v>
       </c>
       <c r="W97" t="s">
         <v>463</v>
       </c>
-      <c r="X97" t="s"/>
       <c r="Y97" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
-      <c r="A98" t="n">
-        <v>85313.41240501845</v>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>85313.412405018447</v>
       </c>
       <c r="B98" t="s">
         <v>465</v>
@@ -7325,44 +6205,31 @@
       <c r="E98" t="s">
         <v>30</v>
       </c>
-      <c r="F98" t="s"/>
-      <c r="G98" t="s"/>
       <c r="H98" t="s">
         <v>59</v>
       </c>
       <c r="I98" t="s">
         <v>194</v>
       </c>
-      <c r="J98" t="s"/>
       <c r="K98" t="s">
         <v>400</v>
       </c>
-      <c r="L98" t="s"/>
       <c r="M98" t="s">
         <v>254</v>
       </c>
-      <c r="N98" t="s"/>
-      <c r="O98" t="s"/>
-      <c r="P98" t="s"/>
-      <c r="Q98" t="s"/>
-      <c r="R98" t="s"/>
       <c r="S98" t="s">
         <v>53</v>
       </c>
-      <c r="T98" t="s"/>
-      <c r="U98" t="s"/>
       <c r="V98" t="s">
         <v>131</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
       <c r="Y98" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
-      <c r="A99" t="n">
-        <v>85088.9899674583</v>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>85088.989967458299</v>
       </c>
       <c r="B99" t="s">
         <v>467</v>
@@ -7376,42 +6243,28 @@
       <c r="E99" t="s">
         <v>30</v>
       </c>
-      <c r="F99" t="s"/>
-      <c r="G99" t="s"/>
       <c r="H99" t="s">
         <v>268</v>
       </c>
-      <c r="I99" t="s"/>
-      <c r="J99" t="s"/>
       <c r="K99" t="s">
         <v>269</v>
       </c>
-      <c r="L99" t="s"/>
       <c r="M99" t="s">
         <v>61</v>
       </c>
-      <c r="N99" t="s"/>
-      <c r="O99" t="s"/>
-      <c r="P99" t="s"/>
-      <c r="Q99" t="s"/>
       <c r="R99" t="s">
         <v>116</v>
       </c>
-      <c r="S99" t="s"/>
-      <c r="T99" t="s"/>
-      <c r="U99" t="s"/>
       <c r="V99" t="s">
         <v>90</v>
       </c>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
       <c r="Y99" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
-      <c r="A100" t="n">
-        <v>84273.78349607669</v>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>84273.783496076692</v>
       </c>
       <c r="B100" t="s">
         <v>469</v>
@@ -7422,13 +6275,6 @@
       <c r="E100" t="s">
         <v>30</v>
       </c>
-      <c r="F100" t="s"/>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s"/>
-      <c r="J100" t="s"/>
-      <c r="K100" t="s"/>
-      <c r="L100" t="s"/>
       <c r="M100" t="s">
         <v>417</v>
       </c>
@@ -7438,24 +6284,16 @@
       <c r="O100" t="s">
         <v>31</v>
       </c>
-      <c r="P100" t="s"/>
-      <c r="Q100" t="s"/>
-      <c r="R100" t="s"/>
       <c r="S100" t="s">
         <v>53</v>
       </c>
-      <c r="T100" t="s"/>
-      <c r="U100" t="s"/>
       <c r="V100" t="s">
         <v>214</v>
       </c>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
-    </row>
-    <row r="101" spans="1:25">
-      <c r="A101" t="n">
-        <v>81772.59663401575</v>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>81772.596634015747</v>
       </c>
       <c r="B101" t="s">
         <v>471</v>
@@ -7469,14 +6307,9 @@
       <c r="E101" t="s">
         <v>30</v>
       </c>
-      <c r="F101" t="s"/>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s"/>
       <c r="I101" t="s">
         <v>164</v>
       </c>
-      <c r="J101" t="s"/>
-      <c r="K101" t="s"/>
       <c r="L101" t="s">
         <v>155</v>
       </c>
@@ -7486,17 +6319,9 @@
       <c r="N101" t="s">
         <v>41</v>
       </c>
-      <c r="O101" t="s"/>
-      <c r="P101" t="s"/>
-      <c r="Q101" t="s"/>
-      <c r="R101" t="s"/>
       <c r="S101" t="s">
         <v>53</v>
       </c>
-      <c r="T101" t="s"/>
-      <c r="U101" t="s"/>
-      <c r="V101" t="s"/>
-      <c r="W101" t="s"/>
       <c r="X101" t="s">
         <v>284</v>
       </c>
@@ -7504,9 +6329,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
-      <c r="A102" t="n">
-        <v>81111.21232573595</v>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>81111.212325735949</v>
       </c>
       <c r="B102" t="s">
         <v>473</v>
@@ -7520,40 +6345,25 @@
       <c r="E102" t="s">
         <v>30</v>
       </c>
-      <c r="F102" t="s"/>
-      <c r="G102" t="s"/>
       <c r="H102" t="s">
         <v>37</v>
       </c>
       <c r="I102" t="s">
         <v>164</v>
       </c>
-      <c r="J102" t="s"/>
-      <c r="K102" t="s"/>
       <c r="L102" t="s">
         <v>155</v>
       </c>
       <c r="M102" t="s">
         <v>61</v>
       </c>
-      <c r="N102" t="s"/>
-      <c r="O102" t="s"/>
-      <c r="P102" t="s"/>
-      <c r="Q102" t="s"/>
-      <c r="R102" t="s"/>
       <c r="S102" t="s">
         <v>53</v>
       </c>
-      <c r="T102" t="s"/>
-      <c r="U102" t="s"/>
-      <c r="V102" t="s"/>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
-    </row>
-    <row r="103" spans="1:25">
-      <c r="A103" t="n">
-        <v>80532.3437617687</v>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>80532.343761768701</v>
       </c>
       <c r="B103" t="s">
         <v>476</v>
@@ -7567,44 +6377,31 @@
       <c r="E103" t="s">
         <v>30</v>
       </c>
-      <c r="F103" t="s"/>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s"/>
       <c r="I103" t="s">
         <v>164</v>
       </c>
-      <c r="J103" t="s"/>
       <c r="K103" t="s">
         <v>479</v>
       </c>
-      <c r="L103" t="s"/>
       <c r="M103" t="s">
         <v>61</v>
       </c>
       <c r="N103" t="s">
         <v>41</v>
       </c>
-      <c r="O103" t="s"/>
-      <c r="P103" t="s"/>
-      <c r="Q103" t="s"/>
-      <c r="R103" t="s"/>
       <c r="S103" t="s">
         <v>53</v>
       </c>
-      <c r="T103" t="s"/>
-      <c r="U103" t="s"/>
-      <c r="V103" t="s"/>
       <c r="W103" t="s">
         <v>480</v>
       </c>
-      <c r="X103" t="s"/>
       <c r="Y103" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
-      <c r="A104" t="n">
-        <v>77299.3898155061</v>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>77299.389815506103</v>
       </c>
       <c r="B104" t="s">
         <v>481</v>
@@ -7618,20 +6415,9 @@
       <c r="E104" t="s">
         <v>30</v>
       </c>
-      <c r="F104" t="s"/>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s"/>
-      <c r="J104" t="s"/>
-      <c r="K104" t="s"/>
-      <c r="L104" t="s"/>
       <c r="M104" t="s">
         <v>483</v>
       </c>
-      <c r="N104" t="s"/>
-      <c r="O104" t="s"/>
-      <c r="P104" t="s"/>
-      <c r="Q104" t="s"/>
       <c r="R104" t="s">
         <v>190</v>
       </c>
@@ -7641,19 +6427,16 @@
       <c r="T104" t="s">
         <v>484</v>
       </c>
-      <c r="U104" t="s"/>
       <c r="V104" t="s">
         <v>191</v>
       </c>
       <c r="W104" t="s">
         <v>485</v>
       </c>
-      <c r="X104" t="s"/>
-      <c r="Y104" t="s"/>
-    </row>
-    <row r="105" spans="1:25">
-      <c r="A105" t="n">
-        <v>71096.21965520148</v>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>71096.219655201479</v>
       </c>
       <c r="B105" t="s">
         <v>486</v>
@@ -7667,44 +6450,31 @@
       <c r="E105" t="s">
         <v>30</v>
       </c>
-      <c r="F105" t="s"/>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s"/>
       <c r="I105" t="s">
         <v>164</v>
       </c>
-      <c r="J105" t="s"/>
       <c r="K105" t="s">
         <v>165</v>
       </c>
-      <c r="L105" t="s"/>
       <c r="M105" t="s">
         <v>61</v>
       </c>
       <c r="N105" t="s">
         <v>41</v>
       </c>
-      <c r="O105" t="s"/>
-      <c r="P105" t="s"/>
-      <c r="Q105" t="s"/>
-      <c r="R105" t="s"/>
       <c r="S105" t="s">
         <v>43</v>
       </c>
-      <c r="T105" t="s"/>
-      <c r="U105" t="s"/>
       <c r="V105" t="s">
         <v>131</v>
       </c>
-      <c r="W105" t="s"/>
-      <c r="X105" t="s"/>
       <c r="Y105" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
-      <c r="A106" t="n">
-        <v>68034.66152335329</v>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>68034.661523353294</v>
       </c>
       <c r="B106" t="s">
         <v>488</v>
@@ -7718,40 +6488,25 @@
       <c r="E106" t="s">
         <v>30</v>
       </c>
-      <c r="F106" t="s"/>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s"/>
       <c r="I106" t="s">
         <v>164</v>
       </c>
-      <c r="J106" t="s"/>
-      <c r="K106" t="s"/>
-      <c r="L106" t="s"/>
       <c r="M106" t="s">
         <v>61</v>
       </c>
-      <c r="N106" t="s"/>
-      <c r="O106" t="s"/>
-      <c r="P106" t="s"/>
-      <c r="Q106" t="s"/>
-      <c r="R106" t="s"/>
       <c r="S106" t="s">
         <v>43</v>
       </c>
-      <c r="T106" t="s"/>
-      <c r="U106" t="s"/>
       <c r="V106" t="s">
         <v>131</v>
       </c>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
       <c r="Y106" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
-      <c r="A107" t="n">
-        <v>65863.81195730198</v>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>65863.811957301979</v>
       </c>
       <c r="B107" t="s">
         <v>490</v>
@@ -7765,42 +6520,28 @@
       <c r="E107" t="s">
         <v>30</v>
       </c>
-      <c r="F107" t="s"/>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s"/>
-      <c r="J107" t="s"/>
       <c r="K107" t="s">
         <v>492</v>
       </c>
-      <c r="L107" t="s"/>
       <c r="M107" t="s">
         <v>189</v>
       </c>
       <c r="N107" t="s">
         <v>41</v>
       </c>
-      <c r="O107" t="s"/>
-      <c r="P107" t="s"/>
-      <c r="Q107" t="s"/>
-      <c r="R107" t="s"/>
       <c r="S107" t="s">
         <v>53</v>
       </c>
-      <c r="T107" t="s"/>
-      <c r="U107" t="s"/>
       <c r="V107" t="s">
         <v>191</v>
       </c>
       <c r="W107" t="s">
         <v>493</v>
       </c>
-      <c r="X107" t="s"/>
-      <c r="Y107" t="s"/>
-    </row>
-    <row r="108" spans="1:25">
-      <c r="A108" t="n">
-        <v>62433.10794172309</v>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>62433.107941723087</v>
       </c>
       <c r="B108" t="s">
         <v>494</v>
@@ -7814,40 +6555,25 @@
       <c r="E108" t="s">
         <v>30</v>
       </c>
-      <c r="F108" t="s"/>
-      <c r="G108" t="s"/>
       <c r="H108" t="s">
         <v>37</v>
       </c>
-      <c r="I108" t="s"/>
-      <c r="J108" t="s"/>
       <c r="K108" t="s">
         <v>497</v>
       </c>
-      <c r="L108" t="s"/>
       <c r="M108" t="s">
         <v>219</v>
       </c>
       <c r="N108" t="s">
         <v>41</v>
       </c>
-      <c r="O108" t="s"/>
-      <c r="P108" t="s"/>
-      <c r="Q108" t="s"/>
-      <c r="R108" t="s"/>
-      <c r="S108" t="s"/>
-      <c r="T108" t="s"/>
-      <c r="U108" t="s"/>
-      <c r="V108" t="s"/>
-      <c r="W108" t="s"/>
-      <c r="X108" t="s"/>
       <c r="Y108" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
-      <c r="A109" t="n">
-        <v>61999.03827856274</v>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>61999.038278562737</v>
       </c>
       <c r="B109" t="s">
         <v>499</v>
@@ -7861,22 +6587,12 @@
       <c r="E109" t="s">
         <v>30</v>
       </c>
-      <c r="F109" t="s"/>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s"/>
-      <c r="J109" t="s"/>
-      <c r="K109" t="s"/>
-      <c r="L109" t="s"/>
       <c r="M109" t="s">
         <v>347</v>
       </c>
       <c r="N109" t="s">
         <v>41</v>
       </c>
-      <c r="O109" t="s"/>
-      <c r="P109" t="s"/>
-      <c r="Q109" t="s"/>
       <c r="R109" t="s">
         <v>190</v>
       </c>
@@ -7886,19 +6602,16 @@
       <c r="T109" t="s">
         <v>348</v>
       </c>
-      <c r="U109" t="s"/>
       <c r="V109" t="s">
         <v>214</v>
       </c>
-      <c r="W109" t="s"/>
-      <c r="X109" t="s"/>
       <c r="Y109" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
-      <c r="A110" t="n">
-        <v>61951.37034657027</v>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>61951.370346570271</v>
       </c>
       <c r="B110" t="s">
         <v>502</v>
@@ -7912,46 +6625,34 @@
       <c r="E110" t="s">
         <v>30</v>
       </c>
-      <c r="F110" t="s"/>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s"/>
       <c r="I110" t="s">
         <v>164</v>
       </c>
-      <c r="J110" t="s"/>
       <c r="K110" t="s">
         <v>309</v>
       </c>
-      <c r="L110" t="s"/>
       <c r="M110" t="s">
         <v>61</v>
       </c>
       <c r="N110" t="s">
         <v>41</v>
       </c>
-      <c r="O110" t="s"/>
-      <c r="P110" t="s"/>
-      <c r="Q110" t="s"/>
-      <c r="R110" t="s"/>
       <c r="S110" t="s">
         <v>53</v>
       </c>
-      <c r="T110" t="s"/>
-      <c r="U110" t="s"/>
       <c r="V110" t="s">
         <v>131</v>
       </c>
       <c r="W110" t="s">
         <v>480</v>
       </c>
-      <c r="X110" t="s"/>
       <c r="Y110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
-      <c r="A111" t="n">
-        <v>60457.89854012479</v>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>60457.898540124792</v>
       </c>
       <c r="B111" t="s">
         <v>505</v>
@@ -7965,22 +6666,12 @@
       <c r="E111" t="s">
         <v>30</v>
       </c>
-      <c r="F111" t="s"/>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s"/>
-      <c r="J111" t="s"/>
-      <c r="K111" t="s"/>
-      <c r="L111" t="s"/>
       <c r="M111" t="s">
         <v>61</v>
       </c>
       <c r="N111" t="s">
         <v>41</v>
       </c>
-      <c r="O111" t="s"/>
-      <c r="P111" t="s"/>
-      <c r="Q111" t="s"/>
       <c r="R111" t="s">
         <v>116</v>
       </c>
@@ -7990,21 +6681,19 @@
       <c r="T111" t="s">
         <v>54</v>
       </c>
-      <c r="U111" t="s"/>
       <c r="V111" t="s">
         <v>64</v>
       </c>
       <c r="W111" t="s">
         <v>507</v>
       </c>
-      <c r="X111" t="s"/>
       <c r="Y111" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
-      <c r="A112" t="n">
-        <v>54940.74446995604</v>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>54940.744469956036</v>
       </c>
       <c r="B112" t="s">
         <v>508</v>
@@ -8018,40 +6707,25 @@
       <c r="E112" t="s">
         <v>30</v>
       </c>
-      <c r="F112" t="s"/>
-      <c r="G112" t="s"/>
       <c r="H112" t="s">
         <v>128</v>
       </c>
-      <c r="I112" t="s"/>
-      <c r="J112" t="s"/>
-      <c r="K112" t="s"/>
-      <c r="L112" t="s"/>
       <c r="M112" t="s">
         <v>189</v>
       </c>
-      <c r="N112" t="s"/>
       <c r="O112" t="s">
         <v>42</v>
       </c>
-      <c r="P112" t="s"/>
-      <c r="Q112" t="s"/>
-      <c r="R112" t="s"/>
       <c r="S112" t="s">
         <v>53</v>
       </c>
-      <c r="T112" t="s"/>
-      <c r="U112" t="s"/>
       <c r="V112" t="s">
         <v>131</v>
       </c>
-      <c r="W112" t="s"/>
-      <c r="X112" t="s"/>
-      <c r="Y112" t="s"/>
-    </row>
-    <row r="113" spans="1:25">
-      <c r="A113" t="n">
-        <v>53048.57595745164</v>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>53048.575957451641</v>
       </c>
       <c r="B113" t="s">
         <v>510</v>
@@ -8065,42 +6739,28 @@
       <c r="E113" t="s">
         <v>30</v>
       </c>
-      <c r="F113" t="s"/>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s"/>
       <c r="I113" t="s">
         <v>164</v>
       </c>
-      <c r="J113" t="s"/>
-      <c r="K113" t="s"/>
-      <c r="L113" t="s"/>
       <c r="M113" t="s">
         <v>61</v>
       </c>
       <c r="N113" t="s">
         <v>41</v>
       </c>
-      <c r="O113" t="s"/>
-      <c r="P113" t="s"/>
-      <c r="Q113" t="s"/>
-      <c r="R113" t="s"/>
       <c r="S113" t="s">
         <v>53</v>
       </c>
-      <c r="T113" t="s"/>
-      <c r="U113" t="s"/>
       <c r="V113" t="s">
         <v>178</v>
       </c>
-      <c r="W113" t="s"/>
-      <c r="X113" t="s"/>
       <c r="Y113" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
-      <c r="A114" t="n">
-        <v>51818.14236397789</v>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>51818.142363977888</v>
       </c>
       <c r="B114" t="s">
         <v>513</v>
@@ -8114,20 +6774,9 @@
       <c r="E114" t="s">
         <v>30</v>
       </c>
-      <c r="F114" t="s"/>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s"/>
-      <c r="J114" t="s"/>
-      <c r="K114" t="s"/>
-      <c r="L114" t="s"/>
       <c r="M114" t="s">
         <v>483</v>
       </c>
-      <c r="N114" t="s"/>
-      <c r="O114" t="s"/>
-      <c r="P114" t="s"/>
-      <c r="Q114" t="s"/>
       <c r="R114" t="s">
         <v>212</v>
       </c>
@@ -8137,17 +6786,13 @@
       <c r="T114" t="s">
         <v>364</v>
       </c>
-      <c r="U114" t="s"/>
       <c r="V114" t="s">
         <v>214</v>
       </c>
-      <c r="W114" t="s"/>
-      <c r="X114" t="s"/>
-      <c r="Y114" t="s"/>
-    </row>
-    <row r="115" spans="1:25">
-      <c r="A115" t="n">
-        <v>48665.11023390484</v>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>48665.110233904838</v>
       </c>
       <c r="B115" t="s">
         <v>515</v>
@@ -8161,39 +6806,24 @@
       <c r="E115" t="s">
         <v>30</v>
       </c>
-      <c r="F115" t="s"/>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s"/>
-      <c r="J115" t="s"/>
-      <c r="K115" t="s"/>
-      <c r="L115" t="s"/>
       <c r="M115" t="s">
         <v>61</v>
       </c>
       <c r="N115" t="s">
         <v>41</v>
       </c>
-      <c r="O115" t="s"/>
-      <c r="P115" t="s"/>
-      <c r="Q115" t="s"/>
-      <c r="R115" t="s"/>
       <c r="S115" t="s">
         <v>43</v>
       </c>
-      <c r="T115" t="s"/>
-      <c r="U115" t="s"/>
       <c r="V115" t="s">
         <v>64</v>
       </c>
-      <c r="W115" t="s"/>
-      <c r="X115" t="s"/>
       <c r="Y115" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
-      <c r="A116" t="n">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>46414.28510654909</v>
       </c>
       <c r="B116" t="s">
@@ -8208,44 +6838,31 @@
       <c r="E116" t="s">
         <v>30</v>
       </c>
-      <c r="F116" t="s"/>
-      <c r="G116" t="s"/>
       <c r="H116" t="s">
         <v>128</v>
       </c>
-      <c r="I116" t="s"/>
-      <c r="J116" t="s"/>
       <c r="K116" t="s">
         <v>130</v>
       </c>
-      <c r="L116" t="s"/>
       <c r="M116" t="s">
         <v>61</v>
       </c>
       <c r="N116" t="s">
         <v>41</v>
       </c>
-      <c r="O116" t="s"/>
-      <c r="P116" t="s"/>
-      <c r="Q116" t="s"/>
-      <c r="R116" t="s"/>
       <c r="S116" t="s">
         <v>53</v>
       </c>
-      <c r="T116" t="s"/>
-      <c r="U116" t="s"/>
-      <c r="V116" t="s"/>
       <c r="W116" t="s">
         <v>241</v>
       </c>
-      <c r="X116" t="s"/>
       <c r="Y116" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
-      <c r="A117" t="n">
-        <v>45442.81239436715</v>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>45442.812394367153</v>
       </c>
       <c r="B117" t="s">
         <v>520</v>
@@ -8259,36 +6876,19 @@
       <c r="E117" t="s">
         <v>30</v>
       </c>
-      <c r="F117" t="s"/>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s"/>
-      <c r="J117" t="s"/>
-      <c r="K117" t="s"/>
-      <c r="L117" t="s"/>
-      <c r="M117" t="s"/>
       <c r="N117" t="s">
         <v>41</v>
       </c>
-      <c r="O117" t="s"/>
-      <c r="P117" t="s"/>
-      <c r="Q117" t="s"/>
-      <c r="R117" t="s"/>
       <c r="S117" t="s">
         <v>43</v>
       </c>
-      <c r="T117" t="s"/>
-      <c r="U117" t="s"/>
       <c r="V117" t="s">
         <v>78</v>
       </c>
-      <c r="W117" t="s"/>
-      <c r="X117" t="s"/>
-      <c r="Y117" t="s"/>
-    </row>
-    <row r="118" spans="1:25">
-      <c r="A118" t="n">
-        <v>44355.32732542732</v>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>44355.327325427323</v>
       </c>
       <c r="B118" t="s">
         <v>523</v>
@@ -8302,20 +6902,9 @@
       <c r="E118" t="s">
         <v>30</v>
       </c>
-      <c r="F118" t="s"/>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s"/>
-      <c r="J118" t="s"/>
-      <c r="K118" t="s"/>
-      <c r="L118" t="s"/>
       <c r="M118" t="s">
         <v>52</v>
       </c>
-      <c r="N118" t="s"/>
-      <c r="O118" t="s"/>
-      <c r="P118" t="s"/>
-      <c r="Q118" t="s"/>
       <c r="R118" t="s">
         <v>190</v>
       </c>
@@ -8325,19 +6914,16 @@
       <c r="T118" t="s">
         <v>213</v>
       </c>
-      <c r="U118" t="s"/>
       <c r="V118" t="s">
         <v>214</v>
       </c>
-      <c r="W118" t="s"/>
-      <c r="X118" t="s"/>
       <c r="Y118" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
-      <c r="A119" t="n">
-        <v>42300.69496216431</v>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>42300.694962164307</v>
       </c>
       <c r="B119" t="s">
         <v>526</v>
@@ -8351,38 +6937,22 @@
       <c r="E119" t="s">
         <v>30</v>
       </c>
-      <c r="F119" t="s"/>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s"/>
-      <c r="J119" t="s"/>
-      <c r="K119" t="s"/>
-      <c r="L119" t="s"/>
       <c r="M119" t="s">
         <v>529</v>
       </c>
       <c r="N119" t="s">
         <v>41</v>
       </c>
-      <c r="O119" t="s"/>
-      <c r="P119" t="s"/>
-      <c r="Q119" t="s"/>
-      <c r="R119" t="s"/>
       <c r="S119" t="s">
         <v>53</v>
       </c>
-      <c r="T119" t="s"/>
-      <c r="U119" t="s"/>
       <c r="V119" t="s">
         <v>214</v>
       </c>
-      <c r="W119" t="s"/>
-      <c r="X119" t="s"/>
-      <c r="Y119" t="s"/>
-    </row>
-    <row r="120" spans="1:25">
-      <c r="A120" t="n">
-        <v>41013.96791263272</v>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>41013.967912632717</v>
       </c>
       <c r="B120" t="s">
         <v>530</v>
@@ -8396,40 +6966,25 @@
       <c r="E120" t="s">
         <v>30</v>
       </c>
-      <c r="F120" t="s"/>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s"/>
-      <c r="J120" t="s"/>
-      <c r="K120" t="s"/>
-      <c r="L120" t="s"/>
       <c r="M120" t="s">
         <v>417</v>
       </c>
       <c r="N120" t="s">
         <v>41</v>
       </c>
-      <c r="O120" t="s"/>
-      <c r="P120" t="s"/>
-      <c r="Q120" t="s"/>
-      <c r="R120" t="s"/>
       <c r="S120" t="s">
         <v>53</v>
       </c>
-      <c r="T120" t="s"/>
-      <c r="U120" t="s"/>
       <c r="V120" t="s">
         <v>214</v>
       </c>
-      <c r="W120" t="s"/>
-      <c r="X120" t="s"/>
       <c r="Y120" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
-      <c r="A121" t="n">
-        <v>36526.09125030007</v>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>36526.091250300073</v>
       </c>
       <c r="B121" t="s">
         <v>533</v>
@@ -8443,38 +6998,22 @@
       <c r="E121" t="s">
         <v>30</v>
       </c>
-      <c r="F121" t="s"/>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s"/>
-      <c r="J121" t="s"/>
-      <c r="K121" t="s"/>
-      <c r="L121" t="s"/>
       <c r="M121" t="s">
         <v>61</v>
       </c>
-      <c r="N121" t="s"/>
       <c r="O121" t="s">
         <v>42</v>
       </c>
-      <c r="P121" t="s"/>
-      <c r="Q121" t="s"/>
-      <c r="R121" t="s"/>
-      <c r="S121" t="s"/>
-      <c r="T121" t="s"/>
-      <c r="U121" t="s"/>
-      <c r="V121" t="s"/>
       <c r="W121" t="s">
         <v>71</v>
       </c>
-      <c r="X121" t="s"/>
       <c r="Y121" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
-      <c r="A122" t="n">
-        <v>34086.03602277711</v>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>34086.036022777109</v>
       </c>
       <c r="B122" t="s">
         <v>535</v>
@@ -8488,40 +7027,25 @@
       <c r="E122" t="s">
         <v>30</v>
       </c>
-      <c r="F122" t="s"/>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s"/>
-      <c r="J122" t="s"/>
-      <c r="K122" t="s"/>
-      <c r="L122" t="s"/>
       <c r="M122" t="s">
         <v>61</v>
       </c>
       <c r="N122" t="s">
         <v>41</v>
       </c>
-      <c r="O122" t="s"/>
-      <c r="P122" t="s"/>
-      <c r="Q122" t="s"/>
-      <c r="R122" t="s"/>
       <c r="S122" t="s">
         <v>53</v>
       </c>
-      <c r="T122" t="s"/>
-      <c r="U122" t="s"/>
       <c r="V122" t="s">
         <v>131</v>
       </c>
       <c r="W122" t="s">
         <v>538</v>
       </c>
-      <c r="X122" t="s"/>
-      <c r="Y122" t="s"/>
-    </row>
-    <row r="123" spans="1:25">
-      <c r="A123" t="n">
-        <v>31649.8807258919</v>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>31649.880725891901</v>
       </c>
       <c r="B123" t="s">
         <v>539</v>
@@ -8535,40 +7059,25 @@
       <c r="E123" t="s">
         <v>30</v>
       </c>
-      <c r="F123" t="s"/>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s"/>
-      <c r="J123" t="s"/>
-      <c r="K123" t="s"/>
-      <c r="L123" t="s"/>
       <c r="M123" t="s">
         <v>52</v>
       </c>
-      <c r="N123" t="s"/>
-      <c r="O123" t="s"/>
-      <c r="P123" t="s"/>
-      <c r="Q123" t="s"/>
       <c r="R123" t="s">
         <v>190</v>
       </c>
       <c r="S123" t="s">
         <v>53</v>
       </c>
-      <c r="T123" t="s"/>
-      <c r="U123" t="s"/>
       <c r="V123" t="s">
         <v>191</v>
       </c>
-      <c r="W123" t="s"/>
-      <c r="X123" t="s"/>
       <c r="Y123" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
-      <c r="A124" t="n">
-        <v>30852.29309725648</v>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>30852.293097256479</v>
       </c>
       <c r="B124" t="s">
         <v>542</v>
@@ -8582,38 +7091,22 @@
       <c r="E124" t="s">
         <v>30</v>
       </c>
-      <c r="F124" t="s"/>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s"/>
-      <c r="J124" t="s"/>
-      <c r="K124" t="s"/>
-      <c r="L124" t="s"/>
       <c r="M124" t="s">
         <v>545</v>
       </c>
       <c r="N124" t="s">
         <v>41</v>
       </c>
-      <c r="O124" t="s"/>
-      <c r="P124" t="s"/>
-      <c r="Q124" t="s"/>
-      <c r="R124" t="s"/>
       <c r="S124" t="s">
         <v>53</v>
       </c>
-      <c r="T124" t="s"/>
-      <c r="U124" t="s"/>
       <c r="V124" t="s">
         <v>191</v>
       </c>
-      <c r="W124" t="s"/>
-      <c r="X124" t="s"/>
-      <c r="Y124" t="s"/>
-    </row>
-    <row r="125" spans="1:25">
-      <c r="A125" t="n">
-        <v>26769.01044407907</v>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>26769.010444079071</v>
       </c>
       <c r="B125" t="s">
         <v>546</v>
@@ -8624,36 +7117,19 @@
       <c r="E125" t="s">
         <v>30</v>
       </c>
-      <c r="F125" t="s"/>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s"/>
-      <c r="J125" t="s"/>
-      <c r="K125" t="s"/>
-      <c r="L125" t="s"/>
       <c r="M125" t="s">
         <v>274</v>
       </c>
-      <c r="N125" t="s"/>
-      <c r="O125" t="s"/>
-      <c r="P125" t="s"/>
-      <c r="Q125" t="s"/>
-      <c r="R125" t="s"/>
       <c r="S125" t="s">
         <v>53</v>
       </c>
-      <c r="T125" t="s"/>
-      <c r="U125" t="s"/>
       <c r="V125" t="s">
         <v>214</v>
       </c>
-      <c r="W125" t="s"/>
-      <c r="X125" t="s"/>
-      <c r="Y125" t="s"/>
-    </row>
-    <row r="126" spans="1:25">
-      <c r="A126" t="n">
-        <v>24954.64108403945</v>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>24954.641084039449</v>
       </c>
       <c r="B126" t="s">
         <v>548</v>
@@ -8667,40 +7143,25 @@
       <c r="E126" t="s">
         <v>30</v>
       </c>
-      <c r="F126" t="s"/>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s"/>
-      <c r="J126" t="s"/>
-      <c r="K126" t="s"/>
-      <c r="L126" t="s"/>
       <c r="M126" t="s">
         <v>61</v>
       </c>
       <c r="N126" t="s">
         <v>41</v>
       </c>
-      <c r="O126" t="s"/>
-      <c r="P126" t="s"/>
-      <c r="Q126" t="s"/>
-      <c r="R126" t="s"/>
       <c r="S126" t="s">
         <v>53</v>
       </c>
-      <c r="T126" t="s"/>
-      <c r="U126" t="s"/>
       <c r="V126" t="s">
         <v>78</v>
       </c>
-      <c r="W126" t="s"/>
-      <c r="X126" t="s"/>
       <c r="Y126" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
-      <c r="A127" t="n">
-        <v>24459.2164298392</v>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>24459.216429839202</v>
       </c>
       <c r="B127" t="s">
         <v>551</v>
@@ -8714,20 +7175,9 @@
       <c r="E127" t="s">
         <v>30</v>
       </c>
-      <c r="F127" t="s"/>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s"/>
-      <c r="J127" t="s"/>
-      <c r="K127" t="s"/>
-      <c r="L127" t="s"/>
       <c r="M127" t="s">
         <v>189</v>
       </c>
-      <c r="N127" t="s"/>
-      <c r="O127" t="s"/>
-      <c r="P127" t="s"/>
-      <c r="Q127" t="s"/>
       <c r="R127" t="s">
         <v>190</v>
       </c>
@@ -8737,17 +7187,13 @@
       <c r="T127" t="s">
         <v>213</v>
       </c>
-      <c r="U127" t="s"/>
       <c r="V127" t="s">
         <v>191</v>
       </c>
-      <c r="W127" t="s"/>
-      <c r="X127" t="s"/>
-      <c r="Y127" t="s"/>
-    </row>
-    <row r="128" spans="1:25">
-      <c r="A128" t="n">
-        <v>22955.72796073938</v>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>22955.727960739379</v>
       </c>
       <c r="B128" t="s">
         <v>554</v>
@@ -8761,38 +7207,22 @@
       <c r="E128" t="s">
         <v>30</v>
       </c>
-      <c r="F128" t="s"/>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s"/>
-      <c r="J128" t="s"/>
-      <c r="K128" t="s"/>
-      <c r="L128" t="s"/>
       <c r="M128" t="s">
         <v>211</v>
       </c>
-      <c r="N128" t="s"/>
-      <c r="O128" t="s"/>
-      <c r="P128" t="s"/>
-      <c r="Q128" t="s"/>
-      <c r="R128" t="s"/>
       <c r="S128" t="s">
         <v>53</v>
       </c>
       <c r="T128" t="s">
         <v>213</v>
       </c>
-      <c r="U128" t="s"/>
       <c r="V128" t="s">
         <v>214</v>
       </c>
-      <c r="W128" t="s"/>
-      <c r="X128" t="s"/>
-      <c r="Y128" t="s"/>
-    </row>
-    <row r="129" spans="1:25">
-      <c r="A129" t="n">
-        <v>19424.91161179036</v>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>19424.911611790361</v>
       </c>
       <c r="B129" t="s">
         <v>557</v>
@@ -8806,37 +7236,21 @@
       <c r="E129" t="s">
         <v>30</v>
       </c>
-      <c r="F129" t="s"/>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s"/>
-      <c r="J129" t="s"/>
-      <c r="K129" t="s"/>
-      <c r="L129" t="s"/>
       <c r="M129" t="s">
         <v>417</v>
       </c>
       <c r="N129" t="s">
         <v>41</v>
       </c>
-      <c r="O129" t="s"/>
-      <c r="P129" t="s"/>
-      <c r="Q129" t="s"/>
-      <c r="R129" t="s"/>
       <c r="S129" t="s">
         <v>53</v>
       </c>
-      <c r="T129" t="s"/>
-      <c r="U129" t="s"/>
       <c r="V129" t="s">
         <v>191</v>
       </c>
-      <c r="W129" t="s"/>
-      <c r="X129" t="s"/>
-      <c r="Y129" t="s"/>
-    </row>
-    <row r="130" spans="1:25">
-      <c r="A130" t="n">
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>19150.75612043498</v>
       </c>
       <c r="B130" t="s">
@@ -8851,35 +7265,18 @@
       <c r="E130" t="s">
         <v>30</v>
       </c>
-      <c r="F130" t="s"/>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s"/>
-      <c r="J130" t="s"/>
-      <c r="K130" t="s"/>
-      <c r="L130" t="s"/>
       <c r="M130" t="s">
         <v>211</v>
       </c>
-      <c r="N130" t="s"/>
-      <c r="O130" t="s"/>
-      <c r="P130" t="s"/>
-      <c r="Q130" t="s"/>
-      <c r="R130" t="s"/>
       <c r="S130" t="s">
         <v>53</v>
       </c>
-      <c r="T130" t="s"/>
-      <c r="U130" t="s"/>
       <c r="V130" t="s">
         <v>214</v>
       </c>
-      <c r="W130" t="s"/>
-      <c r="X130" t="s"/>
-      <c r="Y130" t="s"/>
-    </row>
-    <row r="131" spans="1:25">
-      <c r="A131" t="n">
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>17584.55002926512</v>
       </c>
       <c r="B131" t="s">
@@ -8894,40 +7291,25 @@
       <c r="E131" t="s">
         <v>30</v>
       </c>
-      <c r="F131" t="s"/>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s"/>
-      <c r="J131" t="s"/>
-      <c r="K131" t="s"/>
-      <c r="L131" t="s"/>
       <c r="M131" t="s">
         <v>417</v>
       </c>
       <c r="N131" t="s">
         <v>41</v>
       </c>
-      <c r="O131" t="s"/>
-      <c r="P131" t="s"/>
-      <c r="Q131" t="s"/>
       <c r="R131" t="s">
         <v>190</v>
       </c>
       <c r="S131" t="s">
         <v>53</v>
       </c>
-      <c r="T131" t="s"/>
-      <c r="U131" t="s"/>
       <c r="V131" t="s">
         <v>214</v>
       </c>
-      <c r="W131" t="s"/>
-      <c r="X131" t="s"/>
-      <c r="Y131" t="s"/>
-    </row>
-    <row r="132" spans="1:25">
-      <c r="A132" t="n">
-        <v>16919.61076326874</v>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>16919.610763268742</v>
       </c>
       <c r="B132" t="s">
         <v>566</v>
@@ -8941,42 +7323,28 @@
       <c r="E132" t="s">
         <v>30</v>
       </c>
-      <c r="F132" t="s"/>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s"/>
-      <c r="J132" t="s"/>
-      <c r="K132" t="s"/>
-      <c r="L132" t="s"/>
       <c r="M132" t="s">
         <v>61</v>
       </c>
       <c r="N132" t="s">
         <v>41</v>
       </c>
-      <c r="O132" t="s"/>
-      <c r="P132" t="s"/>
-      <c r="Q132" t="s"/>
       <c r="R132" t="s">
         <v>190</v>
       </c>
       <c r="S132" t="s">
         <v>53</v>
       </c>
-      <c r="T132" t="s"/>
-      <c r="U132" t="s"/>
       <c r="V132" t="s">
         <v>64</v>
       </c>
-      <c r="W132" t="s"/>
-      <c r="X132" t="s"/>
       <c r="Y132" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
-      <c r="A133" t="n">
-        <v>16796.31732238594</v>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>16796.317322385941</v>
       </c>
       <c r="B133" t="s">
         <v>568</v>
@@ -8990,33 +7358,15 @@
       <c r="E133" t="s">
         <v>30</v>
       </c>
-      <c r="F133" t="s"/>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s"/>
-      <c r="J133" t="s"/>
-      <c r="K133" t="s"/>
-      <c r="L133" t="s"/>
       <c r="M133" t="s">
         <v>545</v>
       </c>
-      <c r="N133" t="s"/>
-      <c r="O133" t="s"/>
-      <c r="P133" t="s"/>
-      <c r="Q133" t="s"/>
-      <c r="R133" t="s"/>
-      <c r="S133" t="s"/>
-      <c r="T133" t="s"/>
-      <c r="U133" t="s"/>
       <c r="V133" t="s">
         <v>214</v>
       </c>
-      <c r="W133" t="s"/>
-      <c r="X133" t="s"/>
-      <c r="Y133" t="s"/>
-    </row>
-    <row r="134" spans="1:25">
-      <c r="A134" t="n">
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>16783.85135783302</v>
       </c>
       <c r="B134" t="s">
@@ -9028,35 +7378,18 @@
       <c r="E134" t="s">
         <v>30</v>
       </c>
-      <c r="F134" t="s"/>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s"/>
-      <c r="J134" t="s"/>
-      <c r="K134" t="s"/>
-      <c r="L134" t="s"/>
       <c r="M134" t="s">
         <v>417</v>
       </c>
-      <c r="N134" t="s"/>
-      <c r="O134" t="s"/>
-      <c r="P134" t="s"/>
-      <c r="Q134" t="s"/>
-      <c r="R134" t="s"/>
-      <c r="S134" t="s"/>
       <c r="T134" t="s">
         <v>418</v>
       </c>
-      <c r="U134" t="s"/>
       <c r="V134" t="s">
         <v>214</v>
       </c>
-      <c r="W134" t="s"/>
-      <c r="X134" t="s"/>
-      <c r="Y134" t="s"/>
-    </row>
-    <row r="135" spans="1:25">
-      <c r="A135" t="n">
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>15468.36827269732</v>
       </c>
       <c r="B135" t="s">
@@ -9071,39 +7404,24 @@
       <c r="E135" t="s">
         <v>30</v>
       </c>
-      <c r="F135" t="s"/>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s"/>
-      <c r="J135" t="s"/>
-      <c r="K135" t="s"/>
-      <c r="L135" t="s"/>
       <c r="M135" t="s">
         <v>52</v>
       </c>
       <c r="N135" t="s">
         <v>41</v>
       </c>
-      <c r="O135" t="s"/>
-      <c r="P135" t="s"/>
-      <c r="Q135" t="s"/>
       <c r="R135" t="s">
         <v>190</v>
       </c>
       <c r="S135" t="s">
         <v>53</v>
       </c>
-      <c r="T135" t="s"/>
-      <c r="U135" t="s"/>
       <c r="V135" t="s">
         <v>214</v>
       </c>
-      <c r="W135" t="s"/>
-      <c r="X135" t="s"/>
-      <c r="Y135" t="s"/>
-    </row>
-    <row r="136" spans="1:25">
-      <c r="A136" t="n">
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>15341.62895861295</v>
       </c>
       <c r="B136" t="s">
@@ -9115,36 +7433,19 @@
       <c r="E136" t="s">
         <v>30</v>
       </c>
-      <c r="F136" t="s"/>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s"/>
-      <c r="J136" t="s"/>
-      <c r="K136" t="s"/>
-      <c r="L136" t="s"/>
       <c r="M136" t="s">
         <v>417</v>
       </c>
-      <c r="N136" t="s"/>
-      <c r="O136" t="s"/>
-      <c r="P136" t="s"/>
-      <c r="Q136" t="s"/>
-      <c r="R136" t="s"/>
       <c r="S136" t="s">
         <v>53</v>
       </c>
-      <c r="T136" t="s"/>
-      <c r="U136" t="s"/>
       <c r="V136" t="s">
         <v>214</v>
       </c>
-      <c r="W136" t="s"/>
-      <c r="X136" t="s"/>
-      <c r="Y136" t="s"/>
-    </row>
-    <row r="137" spans="1:25">
-      <c r="A137" t="n">
-        <v>15213.56847809647</v>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>15213.568478096469</v>
       </c>
       <c r="B137" t="s">
         <v>578</v>
@@ -9155,38 +7456,22 @@
       <c r="E137" t="s">
         <v>30</v>
       </c>
-      <c r="F137" t="s"/>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s"/>
-      <c r="J137" t="s"/>
-      <c r="K137" t="s"/>
-      <c r="L137" t="s"/>
       <c r="M137" t="s">
         <v>189</v>
       </c>
       <c r="N137" t="s">
         <v>41</v>
       </c>
-      <c r="O137" t="s"/>
-      <c r="P137" t="s"/>
-      <c r="Q137" t="s"/>
-      <c r="R137" t="s"/>
       <c r="S137" t="s">
         <v>53</v>
       </c>
-      <c r="T137" t="s"/>
-      <c r="U137" t="s"/>
       <c r="V137" t="s">
         <v>214</v>
       </c>
-      <c r="W137" t="s"/>
-      <c r="X137" t="s"/>
-      <c r="Y137" t="s"/>
-    </row>
-    <row r="138" spans="1:25">
-      <c r="A138" t="n">
-        <v>6094.603458915266</v>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>6094.6034589152659</v>
       </c>
       <c r="B138" t="s">
         <v>580</v>
@@ -9197,32 +7482,13 @@
       <c r="E138" t="s">
         <v>30</v>
       </c>
-      <c r="F138" t="s"/>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s"/>
-      <c r="J138" t="s"/>
-      <c r="K138" t="s"/>
-      <c r="L138" t="s"/>
       <c r="M138" t="s">
         <v>219</v>
       </c>
-      <c r="N138" t="s"/>
-      <c r="O138" t="s"/>
-      <c r="P138" t="s"/>
-      <c r="Q138" t="s"/>
-      <c r="R138" t="s"/>
-      <c r="S138" t="s"/>
-      <c r="T138" t="s"/>
-      <c r="U138" t="s"/>
-      <c r="V138" t="s"/>
-      <c r="W138" t="s"/>
-      <c r="X138" t="s"/>
-      <c r="Y138" t="s"/>
-    </row>
-    <row r="139" spans="1:25">
-      <c r="A139" t="n">
-        <v>3809.127161822041</v>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3809.1271618220412</v>
       </c>
       <c r="B139" t="s">
         <v>582</v>
@@ -9233,30 +7499,24 @@
       <c r="E139" t="s">
         <v>30</v>
       </c>
-      <c r="F139" t="s"/>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s"/>
-      <c r="J139" t="s"/>
-      <c r="K139" t="s"/>
-      <c r="L139" t="s"/>
       <c r="M139" t="s">
         <v>417</v>
       </c>
-      <c r="N139" t="s"/>
-      <c r="O139" t="s"/>
-      <c r="P139" t="s"/>
-      <c r="Q139" t="s"/>
-      <c r="R139" t="s"/>
-      <c r="S139" t="s"/>
-      <c r="T139" t="s"/>
-      <c r="U139" t="s"/>
-      <c r="V139" t="s"/>
-      <c r="W139" t="s"/>
-      <c r="X139" t="s"/>
-      <c r="Y139" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A3:Y3" xr:uid="{8791F811-1759-476C-A931-339E7DCC0161}"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>